--- a/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.641795417962328</v>
+        <v>2.641795417962044</v>
       </c>
       <c r="C2">
-        <v>0.1908438712008547</v>
+        <v>0.1908438712006415</v>
       </c>
       <c r="D2">
-        <v>0.02645943917478633</v>
+        <v>0.02645943917501015</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.07731575794908</v>
+        <v>2.077315757949108</v>
       </c>
       <c r="G2">
         <v>1.658599263621753</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5658831227219565</v>
+        <v>0.5658831227219281</v>
       </c>
       <c r="K2">
-        <v>1.801126512609585</v>
+        <v>1.801126512609557</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,16 +453,16 @@
         <v>2.272075177875877</v>
       </c>
       <c r="C3">
-        <v>0.1700562293683276</v>
+        <v>0.1700562293681998</v>
       </c>
       <c r="D3">
-        <v>0.02665408007530345</v>
+        <v>0.02665408007519332</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.84030737675792</v>
+        <v>1.840307376757906</v>
       </c>
       <c r="G3">
         <v>1.474899181856799</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4876211667681432</v>
+        <v>0.4876211667681289</v>
       </c>
       <c r="K3">
         <v>1.533109042268435</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.049029363882539</v>
+        <v>2.04902936388271</v>
       </c>
       <c r="C4">
         <v>0.157275028975647</v>
       </c>
       <c r="D4">
-        <v>0.02684078791891764</v>
+        <v>0.02684078791882172</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.69970770144414</v>
+        <v>1.699707701444154</v>
       </c>
       <c r="G4">
         <v>1.36616050647612</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4402781945086431</v>
+        <v>0.440278194508636</v>
       </c>
       <c r="K4">
-        <v>1.373868380389254</v>
+        <v>1.373868380389268</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.958969337716212</v>
+        <v>1.958969337716269</v>
       </c>
       <c r="C5">
         <v>0.1520595003715073</v>
       </c>
       <c r="D5">
-        <v>0.02693167744190461</v>
+        <v>0.02693167744204317</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.643497368175147</v>
+        <v>1.643497368175133</v>
       </c>
       <c r="G5">
-        <v>1.322742523684269</v>
+        <v>1.322742523684241</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4211329428248547</v>
+        <v>0.4211329428248618</v>
       </c>
       <c r="K5">
-        <v>1.310089002342352</v>
+        <v>1.310089002342323</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.944060795016782</v>
+        <v>1.944060795016838</v>
       </c>
       <c r="C6">
-        <v>0.1511929623838881</v>
+        <v>0.1511929623840729</v>
       </c>
       <c r="D6">
-        <v>0.02694760765444926</v>
+        <v>0.0269476076544386</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.047811613814048</v>
+        <v>2.047811613813934</v>
       </c>
       <c r="C7">
-        <v>0.1572047226583209</v>
+        <v>0.1572047226579087</v>
       </c>
       <c r="D7">
-        <v>0.02684195631243824</v>
+        <v>0.02684195631246666</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.69894542637239</v>
+        <v>1.698945426372376</v>
       </c>
       <c r="G7">
-        <v>1.365571493402641</v>
+        <v>1.365571493402612</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4400194369693082</v>
+        <v>0.4400194369692585</v>
       </c>
       <c r="K7">
-        <v>1.373004002378934</v>
+        <v>1.373004002378892</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.513388608251034</v>
+        <v>2.513388608251091</v>
       </c>
       <c r="C8">
-        <v>0.1836782579087384</v>
+        <v>0.1836782579089657</v>
       </c>
       <c r="D8">
-        <v>0.02651125470605109</v>
+        <v>0.02651125470594451</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>1.994475830708211</v>
       </c>
       <c r="G8">
-        <v>1.594338251013539</v>
+        <v>1.594338251013525</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0.5387311200514304</v>
       </c>
       <c r="K8">
-        <v>1.70746331720251</v>
+        <v>1.707463317202468</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.466362224644683</v>
+        <v>3.466362224644854</v>
       </c>
       <c r="C9">
-        <v>0.235583794950756</v>
+        <v>0.2355837949507702</v>
       </c>
       <c r="D9">
-        <v>0.0265076158895674</v>
+        <v>0.02650761588957451</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0.7395570838596228</v>
       </c>
       <c r="K9">
-        <v>2.417692725236932</v>
+        <v>2.417692725236918</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.204935637023766</v>
+        <v>4.204935637024107</v>
       </c>
       <c r="C10">
-        <v>0.2739027003138261</v>
+        <v>0.2739027003147498</v>
       </c>
       <c r="D10">
-        <v>0.02708839124578333</v>
+        <v>0.02708839124577977</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.122769799913755</v>
+        <v>3.122769799913812</v>
       </c>
       <c r="G10">
-        <v>2.473707559325632</v>
+        <v>2.473707559325675</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8941766112481417</v>
+        <v>0.8941766112481275</v>
       </c>
       <c r="K10">
-        <v>2.993413639797751</v>
+        <v>2.993413639797808</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.553194417185068</v>
+        <v>4.553194417184955</v>
       </c>
       <c r="C11">
-        <v>0.2914163556746985</v>
+        <v>0.2914163556747127</v>
       </c>
       <c r="D11">
-        <v>0.02753512886443588</v>
+        <v>0.02753512886482312</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.363612445519948</v>
+        <v>3.363612445519891</v>
       </c>
       <c r="G11">
-        <v>2.662428230769777</v>
+        <v>2.662428230769748</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9667856193014615</v>
+        <v>0.9667856193015041</v>
       </c>
       <c r="K11">
-        <v>3.273175398386201</v>
+        <v>3.273175398386215</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.687243960730882</v>
+        <v>4.687243960730825</v>
       </c>
       <c r="C12">
-        <v>0.2980632460182022</v>
+        <v>0.2980632460179038</v>
       </c>
       <c r="D12">
-        <v>0.02773662881635985</v>
+        <v>0.02773662881624617</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -807,7 +807,7 @@
         <v>3.45698761359759</v>
       </c>
       <c r="G12">
-        <v>2.735681648414115</v>
+        <v>2.735681648414143</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0.9946829169315663</v>
       </c>
       <c r="K12">
-        <v>3.382357031298341</v>
+        <v>3.382357031298355</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.658270042125594</v>
+        <v>4.658270042125707</v>
       </c>
       <c r="C13">
-        <v>0.2966310154588001</v>
+        <v>0.2966310154589848</v>
       </c>
       <c r="D13">
-        <v>0.02769168142150846</v>
+        <v>0.02769168142159728</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.436774342768814</v>
+        <v>3.436774342768786</v>
       </c>
       <c r="G13">
-        <v>2.719820192916274</v>
+        <v>2.719820192916288</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0.9886555046108185</v>
       </c>
       <c r="K13">
-        <v>3.358686046479974</v>
+        <v>3.358686046480003</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.564176608797425</v>
+        <v>4.564176608797254</v>
       </c>
       <c r="C14">
-        <v>0.2919628859576733</v>
+        <v>0.2919628859574175</v>
       </c>
       <c r="D14">
-        <v>0.02755101832343598</v>
+        <v>0.02755101832356033</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.371248570162578</v>
+        <v>3.37124857016255</v>
       </c>
       <c r="G14">
         <v>2.668417036608588</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.506837925032698</v>
+        <v>4.506837925032926</v>
       </c>
       <c r="C15">
-        <v>0.2891055383289682</v>
+        <v>0.2891055383284993</v>
       </c>
       <c r="D15">
-        <v>0.02746927394835552</v>
+        <v>0.02746927394825249</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.331407233816606</v>
+        <v>3.331407233816577</v>
       </c>
       <c r="G15">
-        <v>2.63717406978347</v>
+        <v>2.637174069783455</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9571316903578406</v>
+        <v>0.9571316903578122</v>
       </c>
       <c r="K15">
-        <v>3.235615192747773</v>
+        <v>3.235615192747758</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.182456047713629</v>
+        <v>4.182456047713515</v>
       </c>
       <c r="C16">
-        <v>0.2727600633084393</v>
+        <v>0.2727600633079987</v>
       </c>
       <c r="D16">
-        <v>0.02706335684180061</v>
+        <v>0.02706335684196759</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.107312822344852</v>
+        <v>3.107312822344795</v>
       </c>
       <c r="G16">
-        <v>2.46160683123658</v>
+        <v>2.461606831236551</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8894832566103759</v>
+        <v>0.8894832566103901</v>
       </c>
       <c r="K16">
-        <v>2.975543852604659</v>
+        <v>2.975543852604631</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.986867263629733</v>
+        <v>3.98686726362979</v>
       </c>
       <c r="C17">
-        <v>0.2627559595283913</v>
+        <v>0.2627559595281639</v>
       </c>
       <c r="D17">
-        <v>0.02686498980645169</v>
+        <v>0.0268649898063309</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>2.973297209995735</v>
       </c>
       <c r="G17">
-        <v>2.356748274500404</v>
+        <v>2.356748274500418</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8486141060448915</v>
+        <v>0.8486141060449199</v>
       </c>
       <c r="K17">
-        <v>2.82100320023558</v>
+        <v>2.821003200235552</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.875496953703419</v>
+        <v>3.875496953703362</v>
       </c>
       <c r="C18">
-        <v>0.257009431090836</v>
+        <v>0.2570094310908075</v>
       </c>
       <c r="D18">
-        <v>0.02676763957905237</v>
+        <v>0.02676763957870065</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.897372990600729</v>
+        <v>2.897372990600758</v>
       </c>
       <c r="G18">
-        <v>2.297388997337947</v>
+        <v>2.29738899733799</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8253158377483771</v>
+        <v>0.8253158377483913</v>
       </c>
       <c r="K18">
-        <v>2.733748337272203</v>
+        <v>2.733748337272189</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.837971384972946</v>
+        <v>3.837971384973002</v>
       </c>
       <c r="C19">
-        <v>0.2550649569831194</v>
+        <v>0.2550649569831052</v>
       </c>
       <c r="D19">
-        <v>0.026737391584021</v>
+        <v>0.02673739158401389</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.871855223873752</v>
+        <v>2.87185522387378</v>
       </c>
       <c r="G19">
-        <v>2.277446309798108</v>
+        <v>2.277446309798123</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.817461206777196</v>
+        <v>0.8174612067772173</v>
       </c>
       <c r="K19">
-        <v>2.704467851715492</v>
+        <v>2.704467851715506</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.007568679146175</v>
+        <v>4.007568679146118</v>
       </c>
       <c r="C20">
-        <v>0.2638201070948014</v>
+        <v>0.2638201070945883</v>
       </c>
       <c r="D20">
-        <v>0.02688433368406251</v>
+        <v>0.02688433368393461</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.98744112609657</v>
+        <v>2.987441126096542</v>
       </c>
       <c r="G20">
-        <v>2.367810057532338</v>
+        <v>2.367810057532353</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8529426100261759</v>
+        <v>0.8529426100261972</v>
       </c>
       <c r="K20">
-        <v>2.837280966377378</v>
+        <v>2.837280966377435</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.591751544015665</v>
+        <v>4.591751544015779</v>
       </c>
       <c r="C21">
-        <v>0.2933336037870902</v>
+        <v>0.2933336037873744</v>
       </c>
       <c r="D21">
-        <v>0.02759140121822767</v>
+        <v>0.02759140121811043</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>3.390432824063737</v>
       </c>
       <c r="G21">
-        <v>2.683464133051643</v>
+        <v>2.683464133051658</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.9748127189380824</v>
+        <v>0.9748127189381108</v>
       </c>
       <c r="K21">
-        <v>3.304492777925361</v>
+        <v>3.304492777925347</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.986459796075337</v>
+        <v>4.986459796075394</v>
       </c>
       <c r="C22">
-        <v>0.312709937345943</v>
+        <v>0.3127099373461988</v>
       </c>
       <c r="D22">
-        <v>0.02824594089097232</v>
+        <v>0.02824594089132759</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>3.666704664696823</v>
       </c>
       <c r="G22">
-        <v>2.900376924205872</v>
+        <v>2.900376924205844</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>1.056850581408213</v>
       </c>
       <c r="K22">
-        <v>3.629187089788701</v>
+        <v>3.629187089788616</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,10 +1213,10 @@
         <v>4.774457935214457</v>
       </c>
       <c r="C23">
-        <v>0.3023595461281161</v>
+        <v>0.3023595461280877</v>
       </c>
       <c r="D23">
-        <v>0.02787657334840432</v>
+        <v>0.02787657334851446</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.012817928006072</v>
+        <v>1.012817928006058</v>
       </c>
       <c r="K23">
         <v>3.453851408237412</v>
@@ -1251,19 +1251,19 @@
         <v>3.998206246315647</v>
       </c>
       <c r="C24">
-        <v>0.2633389907547041</v>
+        <v>0.2633389907549457</v>
       </c>
       <c r="D24">
-        <v>0.02687553675888665</v>
+        <v>0.02687553675889376</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.981043189895274</v>
+        <v>2.981043189895246</v>
       </c>
       <c r="G24">
-        <v>2.362806165261773</v>
+        <v>2.362806165261787</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8509850822793936</v>
+        <v>0.8509850822794078</v>
       </c>
       <c r="K24">
-        <v>2.829916876099759</v>
+        <v>2.829916876099787</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.202962747922982</v>
+        <v>3.202962747922754</v>
       </c>
       <c r="C25">
-        <v>0.2215237361053255</v>
+        <v>0.2215237361051123</v>
       </c>
       <c r="D25">
-        <v>0.02642213084752143</v>
+        <v>0.0264221308474184</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6842029376310705</v>
+        <v>0.6842029376310776</v>
       </c>
       <c r="K25">
-        <v>2.217838909885089</v>
+        <v>2.21783890988506</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.641795417962044</v>
+        <v>2.641795417962328</v>
       </c>
       <c r="C2">
-        <v>0.1908438712006415</v>
+        <v>0.1908438712008547</v>
       </c>
       <c r="D2">
-        <v>0.02645943917501015</v>
+        <v>0.02645943917478633</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.077315757949108</v>
+        <v>2.07731575794908</v>
       </c>
       <c r="G2">
         <v>1.658599263621753</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5658831227219281</v>
+        <v>0.5658831227219565</v>
       </c>
       <c r="K2">
-        <v>1.801126512609557</v>
+        <v>1.801126512609585</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,16 +453,16 @@
         <v>2.272075177875877</v>
       </c>
       <c r="C3">
-        <v>0.1700562293681998</v>
+        <v>0.1700562293683276</v>
       </c>
       <c r="D3">
-        <v>0.02665408007519332</v>
+        <v>0.02665408007530345</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.840307376757906</v>
+        <v>1.84030737675792</v>
       </c>
       <c r="G3">
         <v>1.474899181856799</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4876211667681289</v>
+        <v>0.4876211667681432</v>
       </c>
       <c r="K3">
         <v>1.533109042268435</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.04902936388271</v>
+        <v>2.049029363882539</v>
       </c>
       <c r="C4">
         <v>0.157275028975647</v>
       </c>
       <c r="D4">
-        <v>0.02684078791882172</v>
+        <v>0.02684078791891764</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.699707701444154</v>
+        <v>1.69970770144414</v>
       </c>
       <c r="G4">
         <v>1.36616050647612</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.440278194508636</v>
+        <v>0.4402781945086431</v>
       </c>
       <c r="K4">
-        <v>1.373868380389268</v>
+        <v>1.373868380389254</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.958969337716269</v>
+        <v>1.958969337716212</v>
       </c>
       <c r="C5">
         <v>0.1520595003715073</v>
       </c>
       <c r="D5">
-        <v>0.02693167744204317</v>
+        <v>0.02693167744190461</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.643497368175133</v>
+        <v>1.643497368175147</v>
       </c>
       <c r="G5">
-        <v>1.322742523684241</v>
+        <v>1.322742523684269</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4211329428248618</v>
+        <v>0.4211329428248547</v>
       </c>
       <c r="K5">
-        <v>1.310089002342323</v>
+        <v>1.310089002342352</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.944060795016838</v>
+        <v>1.944060795016782</v>
       </c>
       <c r="C6">
-        <v>0.1511929623840729</v>
+        <v>0.1511929623838881</v>
       </c>
       <c r="D6">
-        <v>0.0269476076544386</v>
+        <v>0.02694760765444926</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.047811613813934</v>
+        <v>2.047811613814048</v>
       </c>
       <c r="C7">
-        <v>0.1572047226579087</v>
+        <v>0.1572047226583209</v>
       </c>
       <c r="D7">
-        <v>0.02684195631246666</v>
+        <v>0.02684195631243824</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.698945426372376</v>
+        <v>1.69894542637239</v>
       </c>
       <c r="G7">
-        <v>1.365571493402612</v>
+        <v>1.365571493402641</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4400194369692585</v>
+        <v>0.4400194369693082</v>
       </c>
       <c r="K7">
-        <v>1.373004002378892</v>
+        <v>1.373004002378934</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.513388608251091</v>
+        <v>2.513388608251034</v>
       </c>
       <c r="C8">
-        <v>0.1836782579089657</v>
+        <v>0.1836782579087384</v>
       </c>
       <c r="D8">
-        <v>0.02651125470594451</v>
+        <v>0.02651125470605109</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>1.994475830708211</v>
       </c>
       <c r="G8">
-        <v>1.594338251013525</v>
+        <v>1.594338251013539</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0.5387311200514304</v>
       </c>
       <c r="K8">
-        <v>1.707463317202468</v>
+        <v>1.70746331720251</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.466362224644854</v>
+        <v>3.466362224644683</v>
       </c>
       <c r="C9">
-        <v>0.2355837949507702</v>
+        <v>0.235583794950756</v>
       </c>
       <c r="D9">
-        <v>0.02650761588957451</v>
+        <v>0.0265076158895674</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0.7395570838596228</v>
       </c>
       <c r="K9">
-        <v>2.417692725236918</v>
+        <v>2.417692725236932</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.204935637024107</v>
+        <v>4.204935637023766</v>
       </c>
       <c r="C10">
-        <v>0.2739027003147498</v>
+        <v>0.2739027003138261</v>
       </c>
       <c r="D10">
-        <v>0.02708839124577977</v>
+        <v>0.02708839124578333</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.122769799913812</v>
+        <v>3.122769799913755</v>
       </c>
       <c r="G10">
-        <v>2.473707559325675</v>
+        <v>2.473707559325632</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8941766112481275</v>
+        <v>0.8941766112481417</v>
       </c>
       <c r="K10">
-        <v>2.993413639797808</v>
+        <v>2.993413639797751</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.553194417184955</v>
+        <v>4.553194417185068</v>
       </c>
       <c r="C11">
-        <v>0.2914163556747127</v>
+        <v>0.2914163556746985</v>
       </c>
       <c r="D11">
-        <v>0.02753512886482312</v>
+        <v>0.02753512886443588</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.363612445519891</v>
+        <v>3.363612445519948</v>
       </c>
       <c r="G11">
-        <v>2.662428230769748</v>
+        <v>2.662428230769777</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9667856193015041</v>
+        <v>0.9667856193014615</v>
       </c>
       <c r="K11">
-        <v>3.273175398386215</v>
+        <v>3.273175398386201</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.687243960730825</v>
+        <v>4.687243960730882</v>
       </c>
       <c r="C12">
-        <v>0.2980632460179038</v>
+        <v>0.2980632460182022</v>
       </c>
       <c r="D12">
-        <v>0.02773662881624617</v>
+        <v>0.02773662881635985</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -807,7 +807,7 @@
         <v>3.45698761359759</v>
       </c>
       <c r="G12">
-        <v>2.735681648414143</v>
+        <v>2.735681648414115</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0.9946829169315663</v>
       </c>
       <c r="K12">
-        <v>3.382357031298355</v>
+        <v>3.382357031298341</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.658270042125707</v>
+        <v>4.658270042125594</v>
       </c>
       <c r="C13">
-        <v>0.2966310154589848</v>
+        <v>0.2966310154588001</v>
       </c>
       <c r="D13">
-        <v>0.02769168142159728</v>
+        <v>0.02769168142150846</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.436774342768786</v>
+        <v>3.436774342768814</v>
       </c>
       <c r="G13">
-        <v>2.719820192916288</v>
+        <v>2.719820192916274</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0.9886555046108185</v>
       </c>
       <c r="K13">
-        <v>3.358686046480003</v>
+        <v>3.358686046479974</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.564176608797254</v>
+        <v>4.564176608797425</v>
       </c>
       <c r="C14">
-        <v>0.2919628859574175</v>
+        <v>0.2919628859576733</v>
       </c>
       <c r="D14">
-        <v>0.02755101832356033</v>
+        <v>0.02755101832343598</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.37124857016255</v>
+        <v>3.371248570162578</v>
       </c>
       <c r="G14">
         <v>2.668417036608588</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.506837925032926</v>
+        <v>4.506837925032698</v>
       </c>
       <c r="C15">
-        <v>0.2891055383284993</v>
+        <v>0.2891055383289682</v>
       </c>
       <c r="D15">
-        <v>0.02746927394825249</v>
+        <v>0.02746927394835552</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.331407233816577</v>
+        <v>3.331407233816606</v>
       </c>
       <c r="G15">
-        <v>2.637174069783455</v>
+        <v>2.63717406978347</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9571316903578122</v>
+        <v>0.9571316903578406</v>
       </c>
       <c r="K15">
-        <v>3.235615192747758</v>
+        <v>3.235615192747773</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.182456047713515</v>
+        <v>4.182456047713629</v>
       </c>
       <c r="C16">
-        <v>0.2727600633079987</v>
+        <v>0.2727600633084393</v>
       </c>
       <c r="D16">
-        <v>0.02706335684196759</v>
+        <v>0.02706335684180061</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.107312822344795</v>
+        <v>3.107312822344852</v>
       </c>
       <c r="G16">
-        <v>2.461606831236551</v>
+        <v>2.46160683123658</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8894832566103901</v>
+        <v>0.8894832566103759</v>
       </c>
       <c r="K16">
-        <v>2.975543852604631</v>
+        <v>2.975543852604659</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.98686726362979</v>
+        <v>3.986867263629733</v>
       </c>
       <c r="C17">
-        <v>0.2627559595281639</v>
+        <v>0.2627559595283913</v>
       </c>
       <c r="D17">
-        <v>0.0268649898063309</v>
+        <v>0.02686498980645169</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>2.973297209995735</v>
       </c>
       <c r="G17">
-        <v>2.356748274500418</v>
+        <v>2.356748274500404</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8486141060449199</v>
+        <v>0.8486141060448915</v>
       </c>
       <c r="K17">
-        <v>2.821003200235552</v>
+        <v>2.82100320023558</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.875496953703362</v>
+        <v>3.875496953703419</v>
       </c>
       <c r="C18">
-        <v>0.2570094310908075</v>
+        <v>0.257009431090836</v>
       </c>
       <c r="D18">
-        <v>0.02676763957870065</v>
+        <v>0.02676763957905237</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.897372990600758</v>
+        <v>2.897372990600729</v>
       </c>
       <c r="G18">
-        <v>2.29738899733799</v>
+        <v>2.297388997337947</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8253158377483913</v>
+        <v>0.8253158377483771</v>
       </c>
       <c r="K18">
-        <v>2.733748337272189</v>
+        <v>2.733748337272203</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.837971384973002</v>
+        <v>3.837971384972946</v>
       </c>
       <c r="C19">
-        <v>0.2550649569831052</v>
+        <v>0.2550649569831194</v>
       </c>
       <c r="D19">
-        <v>0.02673739158401389</v>
+        <v>0.026737391584021</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.87185522387378</v>
+        <v>2.871855223873752</v>
       </c>
       <c r="G19">
-        <v>2.277446309798123</v>
+        <v>2.277446309798108</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8174612067772173</v>
+        <v>0.817461206777196</v>
       </c>
       <c r="K19">
-        <v>2.704467851715506</v>
+        <v>2.704467851715492</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.007568679146118</v>
+        <v>4.007568679146175</v>
       </c>
       <c r="C20">
-        <v>0.2638201070945883</v>
+        <v>0.2638201070948014</v>
       </c>
       <c r="D20">
-        <v>0.02688433368393461</v>
+        <v>0.02688433368406251</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.987441126096542</v>
+        <v>2.98744112609657</v>
       </c>
       <c r="G20">
-        <v>2.367810057532353</v>
+        <v>2.367810057532338</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8529426100261972</v>
+        <v>0.8529426100261759</v>
       </c>
       <c r="K20">
-        <v>2.837280966377435</v>
+        <v>2.837280966377378</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.591751544015779</v>
+        <v>4.591751544015665</v>
       </c>
       <c r="C21">
-        <v>0.2933336037873744</v>
+        <v>0.2933336037870902</v>
       </c>
       <c r="D21">
-        <v>0.02759140121811043</v>
+        <v>0.02759140121822767</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>3.390432824063737</v>
       </c>
       <c r="G21">
-        <v>2.683464133051658</v>
+        <v>2.683464133051643</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.9748127189381108</v>
+        <v>0.9748127189380824</v>
       </c>
       <c r="K21">
-        <v>3.304492777925347</v>
+        <v>3.304492777925361</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.986459796075394</v>
+        <v>4.986459796075337</v>
       </c>
       <c r="C22">
-        <v>0.3127099373461988</v>
+        <v>0.312709937345943</v>
       </c>
       <c r="D22">
-        <v>0.02824594089132759</v>
+        <v>0.02824594089097232</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>3.666704664696823</v>
       </c>
       <c r="G22">
-        <v>2.900376924205844</v>
+        <v>2.900376924205872</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>1.056850581408213</v>
       </c>
       <c r="K22">
-        <v>3.629187089788616</v>
+        <v>3.629187089788701</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,10 +1213,10 @@
         <v>4.774457935214457</v>
       </c>
       <c r="C23">
-        <v>0.3023595461280877</v>
+        <v>0.3023595461281161</v>
       </c>
       <c r="D23">
-        <v>0.02787657334851446</v>
+        <v>0.02787657334840432</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.012817928006058</v>
+        <v>1.012817928006072</v>
       </c>
       <c r="K23">
         <v>3.453851408237412</v>
@@ -1251,19 +1251,19 @@
         <v>3.998206246315647</v>
       </c>
       <c r="C24">
-        <v>0.2633389907549457</v>
+        <v>0.2633389907547041</v>
       </c>
       <c r="D24">
-        <v>0.02687553675889376</v>
+        <v>0.02687553675888665</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.981043189895246</v>
+        <v>2.981043189895274</v>
       </c>
       <c r="G24">
-        <v>2.362806165261787</v>
+        <v>2.362806165261773</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8509850822794078</v>
+        <v>0.8509850822793936</v>
       </c>
       <c r="K24">
-        <v>2.829916876099787</v>
+        <v>2.829916876099759</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.202962747922754</v>
+        <v>3.202962747922982</v>
       </c>
       <c r="C25">
-        <v>0.2215237361051123</v>
+        <v>0.2215237361053255</v>
       </c>
       <c r="D25">
-        <v>0.0264221308474184</v>
+        <v>0.02642213084752143</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6842029376310776</v>
+        <v>0.6842029376310705</v>
       </c>
       <c r="K25">
-        <v>2.21783890988506</v>
+        <v>2.217838909885089</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.641795417962328</v>
+        <v>2.641638345793069</v>
       </c>
       <c r="C2">
-        <v>0.1908438712008547</v>
+        <v>0.1907942908783298</v>
       </c>
       <c r="D2">
-        <v>0.02645943917478633</v>
+        <v>0.0263183163471119</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.07731575794908</v>
+        <v>2.07299583183196</v>
       </c>
       <c r="G2">
-        <v>1.658599263621753</v>
+        <v>0.5340601371012497</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.12403333877397</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5658831227219565</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.801126512609585</v>
+        <v>0.5658374961197481</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.801073946447261</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.272075177875877</v>
+        <v>2.271981621976522</v>
       </c>
       <c r="C3">
-        <v>0.1700562293683276</v>
+        <v>0.1700228486644306</v>
       </c>
       <c r="D3">
-        <v>0.02665408007530345</v>
+        <v>0.02652683241650422</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.84030737675792</v>
+        <v>1.836515811583382</v>
       </c>
       <c r="G3">
-        <v>1.474899181856799</v>
+        <v>0.4700299707754425</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.005013392115899</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4876211667681432</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.533109042268435</v>
+        <v>0.4875930507662503</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.533078787216269</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.049029363882539</v>
+        <v>2.048968123476271</v>
       </c>
       <c r="C4">
-        <v>0.157275028975647</v>
+        <v>0.1572511962241521</v>
       </c>
       <c r="D4">
-        <v>0.02684078791891764</v>
+        <v>0.02672175324622117</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.69970770144414</v>
+        <v>1.696232873959772</v>
       </c>
       <c r="G4">
-        <v>1.36616050647612</v>
+        <v>0.4320409153030482</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.934653430144806</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4402781945086431</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.373868380389254</v>
+        <v>0.4402593115019329</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.373848938736771</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.958969337716212</v>
+        <v>1.95891983257377</v>
       </c>
       <c r="C5">
-        <v>0.1520595003715073</v>
+        <v>0.1520394756896764</v>
       </c>
       <c r="D5">
-        <v>0.02693167744190461</v>
+        <v>0.02681592389969367</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.643497368175147</v>
+        <v>1.640150023755083</v>
       </c>
       <c r="G5">
-        <v>1.322742523684269</v>
+        <v>0.4168507243139032</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9065824627318335</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4211329428248547</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.310089002342352</v>
+        <v>0.4211174960326574</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.310073392046974</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.944060795016782</v>
+        <v>1.944013158494556</v>
       </c>
       <c r="C6">
-        <v>0.1511929623838881</v>
+        <v>0.1511735655087847</v>
       </c>
       <c r="D6">
-        <v>0.02694760765444926</v>
+        <v>0.026832395277534</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.63422504615464</v>
+        <v>1.630898783315587</v>
       </c>
       <c r="G6">
-        <v>1.315583566205788</v>
+        <v>0.4143447942069542</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9019553682423407</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.417961941394573</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.299559621415909</v>
+        <v>0.4179470469601512</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.299544616400055</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.047811613814048</v>
+        <v>2.047750537176341</v>
       </c>
       <c r="C7">
-        <v>0.1572047226583209</v>
+        <v>0.157180941576911</v>
       </c>
       <c r="D7">
-        <v>0.02684195631243824</v>
+        <v>0.02672296614250769</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.69894542637239</v>
+        <v>1.695472324188387</v>
       </c>
       <c r="G7">
-        <v>1.365571493402641</v>
+        <v>0.4318349314545458</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9342725233608462</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4400194369693082</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1.373004002378934</v>
+        <v>0.4400006015577418</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.372984614549821</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.513388608251034</v>
+        <v>2.513254984105743</v>
       </c>
       <c r="C8">
-        <v>0.1836782579087384</v>
+        <v>0.1836343569793257</v>
       </c>
       <c r="D8">
-        <v>0.02651125470605109</v>
+        <v>0.02637498689698248</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.994475830708211</v>
+        <v>1.990339896365086</v>
       </c>
       <c r="G8">
-        <v>1.594338251013539</v>
+        <v>0.5116802089769834</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.08237858015093</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5387311200514304</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.70746331720251</v>
+        <v>0.5386918822017321</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.70741914390058</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.466362224644683</v>
+        <v>3.466019872059178</v>
       </c>
       <c r="C9">
-        <v>0.235583794950756</v>
+        <v>0.2354963957204461</v>
       </c>
       <c r="D9">
-        <v>0.0265076158895674</v>
+        <v>0.02633443804009872</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.620975272021127</v>
+        <v>2.615460456597361</v>
       </c>
       <c r="G9">
-        <v>2.081589832522226</v>
+        <v>0.6809795032512227</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.398635619726164</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7395570838596228</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2.417692725236932</v>
+        <v>0.7394628004707684</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.417568090766508</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.204935637023766</v>
+        <v>4.204375940139755</v>
       </c>
       <c r="C10">
-        <v>0.2739027003138261</v>
+        <v>0.27377948953459</v>
       </c>
       <c r="D10">
-        <v>0.02708839124578333</v>
+        <v>0.02688524179735552</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.122769799913755</v>
+        <v>3.116162830714558</v>
       </c>
       <c r="G10">
-        <v>2.473707559325632</v>
+        <v>0.8167210350947585</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.653671629853847</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.8941766112481417</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>2.993413639797751</v>
+        <v>0.8940275695511275</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>2.993192974130267</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.553194417185068</v>
+        <v>4.552514805315298</v>
       </c>
       <c r="C11">
-        <v>0.2914163556746985</v>
+        <v>0.2912756545986497</v>
       </c>
       <c r="D11">
-        <v>0.02753512886443588</v>
+        <v>0.02731743224215677</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.363612445519948</v>
+        <v>3.356482407701122</v>
       </c>
       <c r="G11">
-        <v>2.662428230769777</v>
+        <v>0.8819352792424837</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.776537420344525</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9667856193014615</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>3.273175398386201</v>
+        <v>0.9666070199341021</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.272896913606232</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.687243960730882</v>
+        <v>4.686515108392086</v>
       </c>
       <c r="C12">
-        <v>0.2980632460182022</v>
+        <v>0.2979157143452511</v>
       </c>
       <c r="D12">
-        <v>0.02773662881635985</v>
+        <v>0.02751326051851777</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.45698761359759</v>
+        <v>3.449654744176712</v>
       </c>
       <c r="G12">
-        <v>2.735681648414115</v>
+        <v>0.9072314001052035</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.824246552763597</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9946829169315663</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>3.382357031298341</v>
+        <v>0.9944922859148733</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>3.382053847801032</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.658270042125594</v>
+        <v>4.65755198026244</v>
       </c>
       <c r="C13">
-        <v>0.2966310154588001</v>
+        <v>0.2964849647038363</v>
       </c>
       <c r="D13">
-        <v>0.02769168142150846</v>
+        <v>0.02746954245836974</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.436774342768814</v>
+        <v>3.429485386647769</v>
       </c>
       <c r="G13">
-        <v>2.719820192916274</v>
+        <v>0.9017548444716681</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.813915367836884</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.9886555046108185</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>3.358686046479974</v>
+        <v>0.9884675053319683</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>3.35838832251855</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.564176608797425</v>
+        <v>4.563493028083769</v>
       </c>
       <c r="C14">
-        <v>0.2919628859576733</v>
+        <v>0.2918216272966561</v>
       </c>
       <c r="D14">
-        <v>0.02755101832343598</v>
+        <v>0.02733285856480805</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.371248570162578</v>
+        <v>3.364101947109987</v>
       </c>
       <c r="G14">
-        <v>2.668417036608588</v>
+        <v>0.8840037016368285</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.78043750609875</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9690722095356818</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>3.282088395358883</v>
+        <v>0.9688926382645917</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>3.281807940273836</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.506837925032698</v>
+        <v>4.506174938387062</v>
       </c>
       <c r="C15">
-        <v>0.2891055383289682</v>
+        <v>0.2889671868423278</v>
       </c>
       <c r="D15">
-        <v>0.02746927394835552</v>
+        <v>0.02725352926960056</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.331407233816606</v>
+        <v>3.32434714106364</v>
       </c>
       <c r="G15">
-        <v>2.63717406978347</v>
+        <v>0.8732122652857583</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.760091885786409</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9571316903578406</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>3.235615192747773</v>
+        <v>0.9569571664324457</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3.235344922315093</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.182456047713629</v>
+        <v>4.181903700099497</v>
       </c>
       <c r="C16">
-        <v>0.2727600633084393</v>
+        <v>0.2726379685374241</v>
       </c>
       <c r="D16">
-        <v>0.02706335684180061</v>
+        <v>0.02686113717449246</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.107312822344852</v>
+        <v>3.100739430096382</v>
       </c>
       <c r="G16">
-        <v>2.46160683123658</v>
+        <v>0.8125371789400191</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.645795912121045</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8894832566103759</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>2.975543852604659</v>
+        <v>0.8893360394463059</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>2.975326621489458</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.986867263629733</v>
+        <v>3.986376891204543</v>
       </c>
       <c r="C17">
-        <v>0.2627559595283913</v>
+        <v>0.2626435070183106</v>
       </c>
       <c r="D17">
-        <v>0.02686498980645169</v>
+        <v>0.026670813177752</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.973297209995735</v>
+        <v>2.967015042774989</v>
       </c>
       <c r="G17">
-        <v>2.356748274500404</v>
+        <v>0.7762694058157535</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.577562213888541</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.8486141060448915</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>2.82100320023558</v>
+        <v>0.8484823419165721</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>2.820814421368354</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.875496953703419</v>
+        <v>3.875040305828804</v>
       </c>
       <c r="C18">
-        <v>0.257009431090836</v>
+        <v>0.2569024139989864</v>
       </c>
       <c r="D18">
-        <v>0.02676763957905237</v>
+        <v>0.02657800543646971</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.897372990600729</v>
+        <v>2.891255928932907</v>
       </c>
       <c r="G18">
-        <v>2.297388997337947</v>
+        <v>0.755728083837667</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.538946808321811</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8253158377483771</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>2.733748337272203</v>
+        <v>0.8251925366685526</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2.733574652347926</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.837971384972946</v>
+        <v>3.837525846727317</v>
       </c>
       <c r="C19">
-        <v>0.2550649569831194</v>
+        <v>0.2549597622371067</v>
       </c>
       <c r="D19">
-        <v>0.026737391584021</v>
+        <v>0.02654928192907491</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.871855223873752</v>
+        <v>2.86579367827477</v>
       </c>
       <c r="G19">
-        <v>2.277446309798108</v>
+        <v>0.7488251094081733</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.52597521782296</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.817461206777196</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>2.704467851715492</v>
+        <v>0.8173407026436124</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.704299078195376</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.007568679146175</v>
+        <v>4.007071913426273</v>
       </c>
       <c r="C20">
-        <v>0.2638201070948014</v>
+        <v>0.263706639830545</v>
       </c>
       <c r="D20">
-        <v>0.02688433368406251</v>
+        <v>0.02668930972447114</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.98744112609657</v>
+        <v>2.981128212181574</v>
       </c>
       <c r="G20">
-        <v>2.367810057532338</v>
+        <v>0.7800964819256961</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.584759209293935</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8529426100261759</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>2.837280966377378</v>
+        <v>0.8528092459944219</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>2.837089294975002</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.591751544015665</v>
+        <v>4.591057946868375</v>
       </c>
       <c r="C21">
-        <v>0.2933336037870902</v>
+        <v>0.2931909435006048</v>
       </c>
       <c r="D21">
-        <v>0.02759140121822767</v>
+        <v>0.02737207738531211</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.390432824063737</v>
+        <v>3.383244532498509</v>
       </c>
       <c r="G21">
-        <v>2.683464133051643</v>
+        <v>0.889200413355212</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.790236899580123</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.9748127189380824</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>3.304492777925361</v>
+        <v>0.974630696503425</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>3.3042073342762</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.986459796075337</v>
+        <v>4.985614674033968</v>
       </c>
       <c r="C22">
-        <v>0.312709937345943</v>
+        <v>0.312546969475278</v>
       </c>
       <c r="D22">
-        <v>0.02824594089097232</v>
+        <v>0.02800976481697504</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.666704664696823</v>
+        <v>3.658915886024744</v>
       </c>
       <c r="G22">
-        <v>2.900376924205872</v>
+        <v>0.9640723508765205</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.931543655825919</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.056850581408213</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>3.629187089788701</v>
+        <v>1.056631754079376</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>3.628823417000234</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.774457935214457</v>
+        <v>4.773696107736669</v>
       </c>
       <c r="C23">
-        <v>0.3023595461281161</v>
+        <v>0.3022075418648456</v>
       </c>
       <c r="D23">
-        <v>0.02787657334840432</v>
+        <v>0.02764949312741294</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.51793278340358</v>
+        <v>3.510467485848238</v>
       </c>
       <c r="G23">
-        <v>2.78351896821826</v>
+        <v>0.9237458729564736</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.855407457726997</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.012817928006072</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>3.453851408237412</v>
+        <v>1.012619270825184</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3.453531377659672</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.998206246315647</v>
+        <v>3.997712376882873</v>
       </c>
       <c r="C24">
-        <v>0.2633389907547041</v>
+        <v>0.2632259825955714</v>
       </c>
       <c r="D24">
-        <v>0.02687553675888665</v>
+        <v>0.026680896129335</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.981043189895274</v>
+        <v>2.974744183727381</v>
       </c>
       <c r="G24">
-        <v>2.362806165261773</v>
+        <v>0.7783653042569227</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.581503552533775</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8509850822793936</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>2.829916876099759</v>
+        <v>0.8508524428633848</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>2.829726516294684</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.202962747922982</v>
+        <v>3.202686096710067</v>
       </c>
       <c r="C25">
-        <v>0.2215237361053255</v>
+        <v>0.2214486701745813</v>
       </c>
       <c r="D25">
-        <v>0.02642213084752143</v>
+        <v>0.02625935522759448</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.445252356408773</v>
+        <v>2.440121864651658</v>
       </c>
       <c r="G25">
-        <v>1.944645181455613</v>
+        <v>0.6334792939469054</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.309663415694359</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6842029376310705</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>2.217838909885089</v>
+        <v>0.684125623886068</v>
       </c>
       <c r="L25">
+        <v>2.217740937405196</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.641638345793069</v>
+        <v>3.779195367579518</v>
       </c>
       <c r="C2">
-        <v>0.1907942908783298</v>
+        <v>1.010150009431868</v>
       </c>
       <c r="D2">
-        <v>0.0263183163471119</v>
+        <v>0.009026117987082971</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.07299583183196</v>
+        <v>2.887429256937139</v>
       </c>
       <c r="G2">
-        <v>0.5340601371012497</v>
+        <v>0.000798891832803254</v>
       </c>
       <c r="H2">
-        <v>1.12403333877397</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1059296383583188</v>
       </c>
       <c r="K2">
-        <v>0.5658374961197481</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.801073946447261</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.9237235037088212</v>
+      </c>
+      <c r="N2">
+        <v>1.254427430940012</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.271981621976522</v>
+        <v>3.271058659442531</v>
       </c>
       <c r="C3">
-        <v>0.1700228486644306</v>
+        <v>0.8703679204348589</v>
       </c>
       <c r="D3">
-        <v>0.02652683241650422</v>
+        <v>0.008408046006877057</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.836515811583382</v>
+        <v>2.630896507905121</v>
       </c>
       <c r="G3">
-        <v>0.4700299707754425</v>
+        <v>0.0008088691083469032</v>
       </c>
       <c r="H3">
-        <v>1.005013392115899</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1002769735389535</v>
       </c>
       <c r="K3">
-        <v>0.4875930507662503</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.533078787216269</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.8052120177548332</v>
+      </c>
+      <c r="N3">
+        <v>1.283087263279754</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.048968123476271</v>
+        <v>2.965532858667757</v>
       </c>
       <c r="C4">
-        <v>0.1572511962241521</v>
+        <v>0.7863056435355702</v>
       </c>
       <c r="D4">
-        <v>0.02672175324622117</v>
+        <v>0.008047327248554503</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.696232873959772</v>
+        <v>2.480087664086938</v>
       </c>
       <c r="G4">
-        <v>0.4320409153030482</v>
+        <v>0.0008151413884036961</v>
       </c>
       <c r="H4">
-        <v>0.934653430144806</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.09699795673439127</v>
       </c>
       <c r="K4">
-        <v>0.4402593115019329</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.373848938736771</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.73405955084624</v>
+      </c>
+      <c r="N4">
+        <v>1.30283838352679</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.95891983257377</v>
+        <v>2.842435006365008</v>
       </c>
       <c r="C5">
-        <v>0.1520394756896764</v>
+        <v>0.7524293618567697</v>
       </c>
       <c r="D5">
-        <v>0.02681592389969367</v>
+        <v>0.007904216228345584</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.640150023755083</v>
+        <v>2.420142885693707</v>
       </c>
       <c r="G5">
-        <v>0.4168507243139032</v>
+        <v>0.0008177365399644927</v>
       </c>
       <c r="H5">
-        <v>0.9065824627318335</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.09570602867905365</v>
       </c>
       <c r="K5">
-        <v>0.4211174960326574</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.310073392046974</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.7054185573738039</v>
+      </c>
+      <c r="N5">
+        <v>1.311393546006158</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.944013158494556</v>
+        <v>2.82207357646439</v>
       </c>
       <c r="C6">
-        <v>0.1511735655087847</v>
+        <v>0.7468254173836328</v>
       </c>
       <c r="D6">
-        <v>0.026832395277534</v>
+        <v>0.007880664904591161</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.630898783315587</v>
+        <v>2.410275573193815</v>
       </c>
       <c r="G6">
-        <v>0.4143447942069542</v>
+        <v>0.0008181698929484261</v>
       </c>
       <c r="H6">
-        <v>0.9019553682423407</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.09549407277500421</v>
       </c>
       <c r="K6">
-        <v>0.4179470469601512</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.299544616400055</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.7006827179642983</v>
+      </c>
+      <c r="N6">
+        <v>1.312843746314613</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.047750537176341</v>
+        <v>2.963867300544564</v>
       </c>
       <c r="C7">
-        <v>0.157180941576911</v>
+        <v>0.7858473184126353</v>
       </c>
       <c r="D7">
-        <v>0.02672296614250769</v>
+        <v>0.008045382503758858</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.695472324188387</v>
+        <v>2.479273328348228</v>
       </c>
       <c r="G7">
-        <v>0.4318349314545458</v>
+        <v>0.0008151762259877351</v>
       </c>
       <c r="H7">
-        <v>0.9342725233608462</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.09698035889523737</v>
       </c>
       <c r="K7">
-        <v>0.4400006015577418</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1.372984614549821</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.7336719189153271</v>
+      </c>
+      <c r="N7">
+        <v>1.302951754980526</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.513254984105743</v>
+        <v>3.602506489588222</v>
       </c>
       <c r="C8">
-        <v>0.1836343569793257</v>
+        <v>0.9615463916480849</v>
       </c>
       <c r="D8">
-        <v>0.02637498689698248</v>
+        <v>0.008808569670576194</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.990339896365086</v>
+        <v>2.797474981290122</v>
       </c>
       <c r="G8">
-        <v>0.5116802089769834</v>
+        <v>0.000802303161632878</v>
       </c>
       <c r="H8">
-        <v>1.08237858015093</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1039383267000531</v>
       </c>
       <c r="K8">
-        <v>0.5386918822017321</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1.70741914390058</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.8824930312443229</v>
+      </c>
+      <c r="N8">
+        <v>1.263840020159563</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.466019872059178</v>
+        <v>4.917501135768362</v>
       </c>
       <c r="C9">
-        <v>0.2354963957204461</v>
+        <v>1.323360363623181</v>
       </c>
       <c r="D9">
-        <v>0.02633443804009872</v>
+        <v>0.01049860641981759</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.615460456597361</v>
+        <v>3.483538852247648</v>
       </c>
       <c r="G9">
-        <v>0.6809795032512227</v>
+        <v>0.000778098318523128</v>
       </c>
       <c r="H9">
-        <v>1.398635619726164</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1193029603483495</v>
       </c>
       <c r="K9">
-        <v>0.7394628004707684</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>2.417568090766508</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.18977008913366</v>
+      </c>
+      <c r="N9">
+        <v>1.206020530067775</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.204375940139755</v>
+        <v>5.939860075356933</v>
       </c>
       <c r="C10">
-        <v>0.27377948953459</v>
+        <v>1.604967519553327</v>
       </c>
       <c r="D10">
-        <v>0.02688524179735552</v>
+        <v>0.01193272575410931</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.116162830714558</v>
+        <v>4.039646379002022</v>
       </c>
       <c r="G10">
-        <v>0.8167210350947585</v>
+        <v>0.0007607563540258916</v>
       </c>
       <c r="H10">
-        <v>1.653671629853847</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1319564624038208</v>
       </c>
       <c r="K10">
-        <v>0.8940275695511275</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>2.993192974130267</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.429153190257651</v>
+      </c>
+      <c r="N10">
+        <v>1.177912607224954</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.552514805315298</v>
+        <v>6.421988403460148</v>
       </c>
       <c r="C11">
-        <v>0.2912756545986497</v>
+        <v>1.737915912628807</v>
       </c>
       <c r="D11">
-        <v>0.02731743224215677</v>
+        <v>0.01264813644055263</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.356482407701122</v>
+        <v>4.307736407020798</v>
       </c>
       <c r="G11">
-        <v>0.8819352792424837</v>
+        <v>0.0007529119468989361</v>
       </c>
       <c r="H11">
-        <v>1.776537420344525</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1380932632301679</v>
       </c>
       <c r="K11">
-        <v>0.9666070199341021</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>3.272896913606232</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.542137862205237</v>
+      </c>
+      <c r="N11">
+        <v>1.169015894266622</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.686515108392086</v>
+        <v>6.607489461454747</v>
       </c>
       <c r="C12">
-        <v>0.2979157143452511</v>
+        <v>1.789097660043524</v>
       </c>
       <c r="D12">
-        <v>0.02751326051851777</v>
+        <v>0.01293033571304292</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.449654744176712</v>
+        <v>4.411807323788793</v>
       </c>
       <c r="G12">
-        <v>0.9072314001052035</v>
+        <v>0.0007499428413894854</v>
       </c>
       <c r="H12">
-        <v>1.824246552763597</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1404801655090111</v>
       </c>
       <c r="K12">
-        <v>0.9944922859148733</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>3.382053847801032</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.585621808339823</v>
+      </c>
+      <c r="N12">
+        <v>1.166283734814456</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.65755198026244</v>
+        <v>6.567399751910273</v>
       </c>
       <c r="C13">
-        <v>0.2964849647038363</v>
+        <v>1.778035033241736</v>
       </c>
       <c r="D13">
-        <v>0.02746954245836974</v>
+        <v>0.01286901655448425</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.429485386647769</v>
+        <v>4.389273647850615</v>
       </c>
       <c r="G13">
-        <v>0.9017548444716681</v>
+        <v>0.000750582317365911</v>
       </c>
       <c r="H13">
-        <v>1.813915367836884</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1399631539749393</v>
       </c>
       <c r="K13">
-        <v>0.9884675053319683</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>3.35838832251855</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.576223702844075</v>
+      </c>
+      <c r="N13">
+        <v>1.166842456782447</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.563493028083769</v>
+        <v>6.437187961331745</v>
       </c>
       <c r="C14">
-        <v>0.2918216272966561</v>
+        <v>1.742109000337223</v>
       </c>
       <c r="D14">
-        <v>0.02733285856480805</v>
+        <v>0.0126711125062906</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.364101947109987</v>
+        <v>4.316244872508918</v>
       </c>
       <c r="G14">
-        <v>0.8840037016368285</v>
+        <v>0.0007526676802906153</v>
       </c>
       <c r="H14">
-        <v>1.78043750609875</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1382883197456479</v>
       </c>
       <c r="K14">
-        <v>0.9688926382645917</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>3.281807940273836</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.545700599714678</v>
+      </c>
+      <c r="N14">
+        <v>1.168777864549028</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.506174938387062</v>
+        <v>6.357826485878832</v>
       </c>
       <c r="C15">
-        <v>0.2889671868423278</v>
+        <v>1.72021685085673</v>
       </c>
       <c r="D15">
-        <v>0.02725352926960056</v>
+        <v>0.01255143456092211</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.32434714106364</v>
+        <v>4.271857121094286</v>
       </c>
       <c r="G15">
-        <v>0.8732122652857583</v>
+        <v>0.0007539450454950232</v>
       </c>
       <c r="H15">
-        <v>1.760091885786409</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1372709119916209</v>
       </c>
       <c r="K15">
-        <v>0.9569571664324457</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>3.235344922315093</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.527098970273116</v>
+      </c>
+      <c r="N15">
+        <v>1.170048812263715</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.181903700099497</v>
+        <v>5.908734083358866</v>
       </c>
       <c r="C16">
-        <v>0.2726379685374241</v>
+        <v>1.596387995399539</v>
       </c>
       <c r="D16">
-        <v>0.02686113717449246</v>
+        <v>0.01188742039514051</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.100739430096382</v>
+        <v>4.022461117345813</v>
       </c>
       <c r="G16">
-        <v>0.8125371789400191</v>
+        <v>0.0007612694906489192</v>
       </c>
       <c r="H16">
-        <v>1.645795912121045</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1315637476880269</v>
       </c>
       <c r="K16">
-        <v>0.8893360394463059</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>2.975326621489458</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.421860749988141</v>
+      </c>
+      <c r="N16">
+        <v>1.178578638745563</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.986376891204543</v>
+        <v>5.637914355639396</v>
       </c>
       <c r="C17">
-        <v>0.2626435070183106</v>
+        <v>1.521756614410208</v>
       </c>
       <c r="D17">
-        <v>0.026670813177752</v>
+        <v>0.01149765897696187</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.967015042774989</v>
+        <v>3.873586052586916</v>
       </c>
       <c r="G17">
-        <v>0.7762694058157535</v>
+        <v>0.0007657708877115049</v>
       </c>
       <c r="H17">
-        <v>1.577562213888541</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1281655907517489</v>
       </c>
       <c r="K17">
-        <v>0.8484823419165721</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>2.820814421368354</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.358421326944239</v>
+      </c>
+      <c r="N17">
+        <v>1.184858941106597</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.875040305828804</v>
+        <v>5.483718371582654</v>
       </c>
       <c r="C18">
-        <v>0.2569024139989864</v>
+        <v>1.479276904918891</v>
       </c>
       <c r="D18">
-        <v>0.02657800543646971</v>
+        <v>0.01127925371898975</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.891255928932907</v>
+        <v>3.789353798250886</v>
       </c>
       <c r="G18">
-        <v>0.755728083837667</v>
+        <v>0.0007683645060400614</v>
       </c>
       <c r="H18">
-        <v>1.538946808321811</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1262463249976946</v>
       </c>
       <c r="K18">
-        <v>0.8251925366685526</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>2.733574652347926</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.322309833291825</v>
+      </c>
+      <c r="N18">
+        <v>1.188832007916247</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.837525846727317</v>
+        <v>5.43176697730496</v>
       </c>
       <c r="C19">
-        <v>0.2549597622371067</v>
+        <v>1.464966738392491</v>
       </c>
       <c r="D19">
-        <v>0.02654928192907491</v>
+        <v>0.01120623658656067</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.86579367827477</v>
+        <v>3.761063549149043</v>
       </c>
       <c r="G19">
-        <v>0.7488251094081733</v>
+        <v>0.0007692435794692305</v>
       </c>
       <c r="H19">
-        <v>1.52597521782296</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1256023190017004</v>
       </c>
       <c r="K19">
-        <v>0.8173407026436124</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>2.704299078195376</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.310144774921469</v>
+      </c>
+      <c r="N19">
+        <v>1.190237027970625</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.007071913426273</v>
+        <v>5.666577626643232</v>
       </c>
       <c r="C20">
-        <v>0.263706639830545</v>
+        <v>1.529654117927691</v>
       </c>
       <c r="D20">
-        <v>0.02668930972447114</v>
+        <v>0.01153853731764842</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.981128212181574</v>
+        <v>3.889286954666346</v>
       </c>
       <c r="G20">
-        <v>0.7800964819256961</v>
+        <v>0.0007652912709211267</v>
       </c>
       <c r="H20">
-        <v>1.584759209293935</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1285236246345391</v>
       </c>
       <c r="K20">
-        <v>0.8528092459944219</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>2.837089294975002</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.36513477463096</v>
+      </c>
+      <c r="N20">
+        <v>1.184152529046671</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.591057946868375</v>
+        <v>6.475350620045958</v>
       </c>
       <c r="C21">
-        <v>0.2931909435006048</v>
+        <v>1.752637391597432</v>
       </c>
       <c r="D21">
-        <v>0.02737207738531211</v>
+        <v>0.01272891531476572</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.383244532498509</v>
+        <v>4.337622640745423</v>
       </c>
       <c r="G21">
-        <v>0.889200413355212</v>
+        <v>0.0007520551644315137</v>
       </c>
       <c r="H21">
-        <v>1.790236899580123</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1387784759578707</v>
       </c>
       <c r="K21">
-        <v>0.974630696503425</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>3.3042073342762</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.554646024824436</v>
+      </c>
+      <c r="N21">
+        <v>1.168191422673289</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.985614674033968</v>
+        <v>7.021287272531538</v>
       </c>
       <c r="C22">
-        <v>0.312546969475278</v>
+        <v>1.903332227463636</v>
       </c>
       <c r="D22">
-        <v>0.02800976481697504</v>
+        <v>0.01357408363789947</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.658915886024744</v>
+        <v>4.6457280036893</v>
       </c>
       <c r="G22">
-        <v>0.9640723508765205</v>
+        <v>0.0007434098332070871</v>
       </c>
       <c r="H22">
-        <v>1.931543655825919</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1458528437853488</v>
       </c>
       <c r="K22">
-        <v>1.056631754079376</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>3.628823417000234</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.682642939932308</v>
+      </c>
+      <c r="N22">
+        <v>1.161517750823975</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.773696107736669</v>
+        <v>6.728143449587435</v>
       </c>
       <c r="C23">
-        <v>0.3022075418648456</v>
+        <v>1.822396642577701</v>
       </c>
       <c r="D23">
-        <v>0.02764949312741294</v>
+        <v>0.01311599217709769</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.510467485848238</v>
+        <v>4.479763778690739</v>
       </c>
       <c r="G23">
-        <v>0.9237458729564736</v>
+        <v>0.0007480254032519992</v>
       </c>
       <c r="H23">
-        <v>1.855407457726997</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1420399653380997</v>
       </c>
       <c r="K23">
-        <v>1.012619270825184</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>3.453531377659672</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.613908052796631</v>
+      </c>
+      <c r="N23">
+        <v>1.164706633777087</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.997712376882873</v>
+        <v>5.653614318802795</v>
       </c>
       <c r="C24">
-        <v>0.2632259825955714</v>
+        <v>1.526082337286596</v>
       </c>
       <c r="D24">
-        <v>0.026680896129335</v>
+        <v>0.01152003870871804</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.974744183727381</v>
+        <v>3.882184374673443</v>
       </c>
       <c r="G24">
-        <v>0.7783653042569227</v>
+        <v>0.0007655080874806623</v>
       </c>
       <c r="H24">
-        <v>1.581503552533775</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1283616510385528</v>
       </c>
       <c r="K24">
-        <v>0.8508524428633848</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>2.829726516294684</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.362098509665898</v>
+      </c>
+      <c r="N24">
+        <v>1.184470774725639</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.202686096710067</v>
+        <v>4.55333849715953</v>
       </c>
       <c r="C25">
-        <v>0.2214486701745813</v>
+        <v>1.223132665513106</v>
       </c>
       <c r="D25">
-        <v>0.02625935522759448</v>
+        <v>0.01001379851986817</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.440121864651658</v>
+        <v>3.289943601595411</v>
       </c>
       <c r="G25">
-        <v>0.6334792939469054</v>
+        <v>0.0007845534590770939</v>
       </c>
       <c r="H25">
-        <v>1.309663415694359</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1149320972857311</v>
       </c>
       <c r="K25">
-        <v>0.684125623886068</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2.217740937405196</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>1.104589610975616</v>
+      </c>
+      <c r="N25">
+        <v>1.219369687281443</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.779195367579518</v>
+        <v>2.125217318590074</v>
       </c>
       <c r="C2">
-        <v>1.010150009431868</v>
+        <v>0.4829364542881081</v>
       </c>
       <c r="D2">
-        <v>0.009026117987082971</v>
+        <v>0.01116892450917817</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.887429256937139</v>
+        <v>0.9162977416378055</v>
       </c>
       <c r="G2">
-        <v>0.000798891832803254</v>
+        <v>0.8592091315936727</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.490375908180738</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1059296383583188</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9237235037088212</v>
+        <v>2.824243821706986</v>
       </c>
       <c r="N2">
-        <v>1.254427430940012</v>
+        <v>0.4765705474189641</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.271058659442531</v>
+        <v>1.84352103554167</v>
       </c>
       <c r="C3">
-        <v>0.8703679204348589</v>
+        <v>0.4255872242953558</v>
       </c>
       <c r="D3">
-        <v>0.008408046006877057</v>
+        <v>0.01073822020218529</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.630896507905121</v>
+        <v>0.8134488286849404</v>
       </c>
       <c r="G3">
-        <v>0.0008088691083469032</v>
+        <v>0.7577447148732546</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4504128538263217</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1002769735389535</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8052120177548332</v>
+        <v>2.402603324375917</v>
       </c>
       <c r="N3">
-        <v>1.283087263279754</v>
+        <v>0.5218522579956364</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.965532858667757</v>
+        <v>1.671399884731159</v>
       </c>
       <c r="C4">
-        <v>0.7863056435355702</v>
+        <v>0.3904058736894456</v>
       </c>
       <c r="D4">
-        <v>0.008047327248554503</v>
+        <v>0.01047391938256581</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.480087664086938</v>
+        <v>0.7523416036944184</v>
       </c>
       <c r="G4">
-        <v>0.0008151413884036961</v>
+        <v>0.697550621913777</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4270414456801888</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09699795673439127</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.73405955084624</v>
+        <v>2.152974987754959</v>
       </c>
       <c r="N4">
-        <v>1.30283838352679</v>
+        <v>0.551013523579698</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.842435006365008</v>
+        <v>1.601427570858476</v>
       </c>
       <c r="C5">
-        <v>0.7524293618567697</v>
+        <v>0.3760707065304132</v>
       </c>
       <c r="D5">
-        <v>0.007904216228345584</v>
+        <v>0.01036621877738497</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.420142885693707</v>
+        <v>0.7279017188462831</v>
       </c>
       <c r="G5">
-        <v>0.0008177365399644927</v>
+        <v>0.6734945890313213</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4177852581001105</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09570602867905365</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7054185573738039</v>
+        <v>2.053175674263272</v>
       </c>
       <c r="N5">
-        <v>1.311393546006158</v>
+        <v>0.5632217910873685</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.82207357646439</v>
+        <v>1.589817683678689</v>
       </c>
       <c r="C6">
-        <v>0.7468254173836328</v>
+        <v>0.3736902735869023</v>
       </c>
       <c r="D6">
-        <v>0.007880664904591161</v>
+        <v>0.01034833459482698</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.410275573193815</v>
+        <v>0.7238699525804435</v>
       </c>
       <c r="G6">
-        <v>0.0008181698929484261</v>
+        <v>0.6695271584036107</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4162637505431661</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09549407277500421</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7006827179642983</v>
+        <v>2.036709757076281</v>
       </c>
       <c r="N6">
-        <v>1.312843746314613</v>
+        <v>0.5652681225693463</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.963867300544564</v>
+        <v>1.670455586725751</v>
       </c>
       <c r="C7">
-        <v>0.7858473184126353</v>
+        <v>0.390212546687934</v>
       </c>
       <c r="D7">
-        <v>0.008045382503758858</v>
+        <v>0.01047246691666892</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.479273328348228</v>
+        <v>0.7520101943852495</v>
       </c>
       <c r="G7">
-        <v>0.0008151762259877351</v>
+        <v>0.6972243469339503</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.426915560985293</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09698035889523737</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7336719189153271</v>
+        <v>2.151621749025168</v>
       </c>
       <c r="N7">
-        <v>1.302951754980526</v>
+        <v>0.5511768743562406</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.602506489588222</v>
+        <v>2.027886921252815</v>
       </c>
       <c r="C8">
-        <v>0.9615463916480849</v>
+        <v>0.4631520331569732</v>
       </c>
       <c r="D8">
-        <v>0.008808569670576194</v>
+        <v>0.0110203620084377</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.797474981290122</v>
+        <v>0.8803789629832295</v>
       </c>
       <c r="G8">
-        <v>0.000802303161632878</v>
+        <v>0.8237520249276713</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.476338671250474</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1039383267000531</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8824930312443229</v>
+        <v>2.676677976168705</v>
       </c>
       <c r="N8">
-        <v>1.263840020159563</v>
+        <v>0.4918912842136667</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.917501135768362</v>
+        <v>2.737596720805925</v>
       </c>
       <c r="C9">
-        <v>1.323360363623181</v>
+        <v>0.6067355509789252</v>
       </c>
       <c r="D9">
-        <v>0.01049860641981759</v>
+        <v>0.01209812405524247</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.483538852247648</v>
+        <v>1.150911346317002</v>
       </c>
       <c r="G9">
-        <v>0.000778098318523128</v>
+        <v>1.091386467393278</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.5837812756789162</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1193029603483495</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.18977008913366</v>
+        <v>3.801921329330852</v>
       </c>
       <c r="N9">
-        <v>1.206020530067775</v>
+        <v>0.3872451625239286</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.939860075356933</v>
+        <v>3.267560343607215</v>
       </c>
       <c r="C10">
-        <v>1.604967519553327</v>
+        <v>0.7129890137879897</v>
       </c>
       <c r="D10">
-        <v>0.01193272575410931</v>
+        <v>0.01289577648031326</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.039646379002022</v>
+        <v>1.365226926261485</v>
       </c>
       <c r="G10">
-        <v>0.0007607563540258916</v>
+        <v>1.304356212208972</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6711408443661355</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1319564624038208</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.429153190257651</v>
+        <v>4.726312073316649</v>
       </c>
       <c r="N10">
-        <v>1.177912607224954</v>
+        <v>0.3187632944551737</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.421988403460148</v>
+        <v>3.511270395719578</v>
       </c>
       <c r="C11">
-        <v>1.737915912628807</v>
+        <v>0.7615811944285724</v>
       </c>
       <c r="D11">
-        <v>0.01264813644055263</v>
+        <v>0.01326093579735499</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.307736407020798</v>
+        <v>1.4671806055932</v>
       </c>
       <c r="G11">
-        <v>0.0007529119468989361</v>
+        <v>1.405966257490093</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.713240297782761</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1380932632301679</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.542137862205237</v>
+        <v>5.180392372452985</v>
       </c>
       <c r="N11">
-        <v>1.169015894266622</v>
+        <v>0.2897859065798762</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.607489461454747</v>
+        <v>3.604001451443651</v>
       </c>
       <c r="C12">
-        <v>1.789097660043524</v>
+        <v>0.7800248754123231</v>
       </c>
       <c r="D12">
-        <v>0.01293033571304292</v>
+        <v>0.01339963326902449</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.411807323788793</v>
+        <v>1.506536322228612</v>
       </c>
       <c r="G12">
-        <v>0.0007499428413894854</v>
+        <v>1.44524097408933</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.7295740646311231</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1404801655090111</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.585621808339823</v>
+        <v>5.358605075517033</v>
       </c>
       <c r="N12">
-        <v>1.166283734814456</v>
+        <v>0.2791613331135885</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.567399751910273</v>
+        <v>3.584009361809592</v>
       </c>
       <c r="C13">
-        <v>1.778035033241736</v>
+        <v>0.7760507136885622</v>
       </c>
       <c r="D13">
-        <v>0.01286901655448425</v>
+        <v>0.0133697422565966</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.389273647850615</v>
+        <v>1.498025197595709</v>
       </c>
       <c r="G13">
-        <v>0.000750582317365911</v>
+        <v>1.436744915793867</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7260379476093135</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1399631539749393</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.576223702844075</v>
+        <v>5.319917439604652</v>
       </c>
       <c r="N13">
-        <v>1.166842456782447</v>
+        <v>0.2814333884915854</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.437187961331745</v>
+        <v>3.518890162540117</v>
       </c>
       <c r="C14">
-        <v>1.742109000337223</v>
+        <v>0.7630976791767523</v>
       </c>
       <c r="D14">
-        <v>0.0126711125062906</v>
+        <v>0.01327233761700697</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.316244872508918</v>
+        <v>1.470402755474851</v>
       </c>
       <c r="G14">
-        <v>0.0007526676802906153</v>
+        <v>1.409180690067529</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7145759061004924</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1382883197456479</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.545700599714678</v>
+        <v>5.194918682334134</v>
       </c>
       <c r="N14">
-        <v>1.168777864549028</v>
+        <v>0.2889046047701314</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.357826485878832</v>
+        <v>3.479062514128827</v>
       </c>
       <c r="C15">
-        <v>1.72021685085673</v>
+        <v>0.7551693067462679</v>
       </c>
       <c r="D15">
-        <v>0.01255143456092211</v>
+        <v>0.01321273168665371</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.271857121094286</v>
+        <v>1.453584107367305</v>
       </c>
       <c r="G15">
-        <v>0.0007539450454950232</v>
+        <v>1.392404451508042</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.7076077804399574</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1372709119916209</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.527098970273116</v>
+        <v>5.119219142642848</v>
       </c>
       <c r="N15">
-        <v>1.170048812263715</v>
+        <v>0.2935274943793438</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.908734083358866</v>
+        <v>3.251691707536736</v>
       </c>
       <c r="C16">
-        <v>1.596387995399539</v>
+        <v>0.7098191074630051</v>
       </c>
       <c r="D16">
-        <v>0.01188742039514051</v>
+        <v>0.01287196637583321</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.022461117345813</v>
+        <v>1.358662490589538</v>
       </c>
       <c r="G16">
-        <v>0.0007612694906489192</v>
+        <v>1.297820484352343</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6684413011079471</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1315637476880269</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.421860749988141</v>
+        <v>4.697425335147074</v>
       </c>
       <c r="N16">
-        <v>1.178578638745563</v>
+        <v>0.3207037278648031</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.637914355639396</v>
+        <v>3.112925454966785</v>
       </c>
       <c r="C17">
-        <v>1.521756614410208</v>
+        <v>0.6820686383430257</v>
       </c>
       <c r="D17">
-        <v>0.01149765897696187</v>
+        <v>0.01266357051550315</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.873586052586916</v>
+        <v>1.301644144334091</v>
       </c>
       <c r="G17">
-        <v>0.0007657708877115049</v>
+        <v>1.241084845085709</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6450528231992223</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1281655907517489</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.358421326944239</v>
+        <v>4.448158832209373</v>
       </c>
       <c r="N17">
-        <v>1.184858941106597</v>
+        <v>0.337956235096712</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.483718371582654</v>
+        <v>3.033353873736701</v>
       </c>
       <c r="C18">
-        <v>1.479276904918891</v>
+        <v>0.6661311825675398</v>
       </c>
       <c r="D18">
-        <v>0.01127925371898975</v>
+        <v>0.01254391790546805</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.789353798250886</v>
+        <v>1.26926124674327</v>
       </c>
       <c r="G18">
-        <v>0.0007683645060400614</v>
+        <v>1.208889090151558</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6318188634707553</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1262463249976946</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.322309833291825</v>
+        <v>4.307840612679072</v>
       </c>
       <c r="N18">
-        <v>1.188832007916247</v>
+        <v>0.3480817270753711</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.43176697730496</v>
+        <v>3.006452114936565</v>
       </c>
       <c r="C19">
-        <v>1.464966738392491</v>
+        <v>0.660738934681234</v>
       </c>
       <c r="D19">
-        <v>0.01120623658656067</v>
+        <v>0.01250343917088159</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.761063549149043</v>
+        <v>1.258364836848159</v>
       </c>
       <c r="G19">
-        <v>0.0007692435794692305</v>
+        <v>1.19805997408011</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6273741353438993</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1256023190017004</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.310144774921469</v>
+        <v>4.26081867700286</v>
       </c>
       <c r="N19">
-        <v>1.190237027970625</v>
+        <v>0.3515437967068671</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.666577626643232</v>
+        <v>3.127671735744059</v>
       </c>
       <c r="C20">
-        <v>1.529654117927691</v>
+        <v>0.6850202045514209</v>
       </c>
       <c r="D20">
-        <v>0.01153853731764842</v>
+        <v>0.01268573211245538</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.889286954666346</v>
+        <v>1.307670430397195</v>
       </c>
       <c r="G20">
-        <v>0.0007652912709211267</v>
+        <v>1.247078428220135</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6475196031342421</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1285236246345391</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.36513477463096</v>
+        <v>4.47436863725288</v>
       </c>
       <c r="N20">
-        <v>1.184152529046671</v>
+        <v>0.3360984983779822</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.475350620045958</v>
+        <v>3.538004678230038</v>
       </c>
       <c r="C21">
-        <v>1.752637391597432</v>
+        <v>0.76690109585968</v>
       </c>
       <c r="D21">
-        <v>0.01272891531476572</v>
+        <v>0.01330093564385848</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.337622640745423</v>
+        <v>1.478494892898439</v>
       </c>
       <c r="G21">
-        <v>0.0007520551644315137</v>
+        <v>1.41725429887407</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7179314952416007</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1387784759578707</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.554646024824436</v>
+        <v>5.231450179571667</v>
       </c>
       <c r="N21">
-        <v>1.168191422673289</v>
+        <v>0.2867003529699232</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.021287272531538</v>
+        <v>3.808797725110196</v>
       </c>
       <c r="C22">
-        <v>1.903332227463636</v>
+        <v>0.8206663524725855</v>
       </c>
       <c r="D22">
-        <v>0.01357408363789947</v>
+        <v>0.01370548802471205</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.6457280036893</v>
+        <v>1.59456265796598</v>
       </c>
       <c r="G22">
-        <v>0.0007434098332070871</v>
+        <v>1.533191318360252</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.7662636694215621</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1458528437853488</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.682642939932308</v>
+        <v>5.763784772860021</v>
       </c>
       <c r="N22">
-        <v>1.161517750823975</v>
+        <v>0.2564686957820825</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.728143449587435</v>
+        <v>3.6640084666858</v>
       </c>
       <c r="C23">
-        <v>1.822396642577701</v>
+        <v>0.7919463110590925</v>
       </c>
       <c r="D23">
-        <v>0.01311599217709769</v>
+        <v>0.01348931609211945</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.479763778690739</v>
+        <v>1.532170008932354</v>
       </c>
       <c r="G23">
-        <v>0.0007480254032519992</v>
+        <v>1.470837480053547</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.7402363781462498</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1420399653380997</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.613908052796631</v>
+        <v>5.475629376666802</v>
       </c>
       <c r="N23">
-        <v>1.164706633777087</v>
+        <v>0.2724025625352269</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.653614318802795</v>
+        <v>3.121004302419124</v>
       </c>
       <c r="C24">
-        <v>1.526082337286596</v>
+        <v>0.6836857500545364</v>
       </c>
       <c r="D24">
-        <v>0.01152003870871804</v>
+        <v>0.01267571237253762</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.882184374673443</v>
+        <v>1.304944715504718</v>
       </c>
       <c r="G24">
-        <v>0.0007655080874806623</v>
+        <v>1.244367422424602</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6464037142215204</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1283616510385528</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.362098509665898</v>
+        <v>4.462509977882902</v>
       </c>
       <c r="N24">
-        <v>1.184470774725639</v>
+        <v>0.3369377396422912</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.55333849715953</v>
+        <v>2.544345481808477</v>
       </c>
       <c r="C25">
-        <v>1.223132665513106</v>
+        <v>0.5677895276612617</v>
       </c>
       <c r="D25">
-        <v>0.01001379851986817</v>
+        <v>0.01180585354286734</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.289943601595411</v>
+        <v>1.07532009758576</v>
       </c>
       <c r="G25">
-        <v>0.0007845534590770939</v>
+        <v>1.016470385331061</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5533964268251879</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1149320972857311</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.104589610975616</v>
+        <v>3.483757197302026</v>
       </c>
       <c r="N25">
-        <v>1.219369687281443</v>
+        <v>0.4141855910072927</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.125217318590074</v>
+        <v>0.6761305404375832</v>
       </c>
       <c r="C2">
-        <v>0.4829364542881081</v>
+        <v>0.1628680422044511</v>
       </c>
       <c r="D2">
-        <v>0.01116892450917817</v>
+        <v>0.007216698647265929</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9162977416378055</v>
+        <v>0.6759200295582559</v>
       </c>
       <c r="G2">
-        <v>0.8592091315936727</v>
+        <v>0.5339648941648818</v>
       </c>
       <c r="H2">
-        <v>0.490375908180738</v>
+        <v>0.5969941988219176</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.824243821706986</v>
+        <v>0.8938952887598077</v>
       </c>
       <c r="N2">
-        <v>0.4765705474189641</v>
+        <v>1.009474523385228</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.84352103554167</v>
+        <v>0.5937072249151925</v>
       </c>
       <c r="C3">
-        <v>0.4255872242953558</v>
+        <v>0.1448294142447537</v>
       </c>
       <c r="D3">
-        <v>0.01073822020218529</v>
+        <v>0.006983636417057681</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8134488286849404</v>
+        <v>0.6545518479094881</v>
       </c>
       <c r="G3">
-        <v>0.7577447148732546</v>
+        <v>0.5118022218975113</v>
       </c>
       <c r="H3">
-        <v>0.4504128538263217</v>
+        <v>0.5916943411649953</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.402603324375917</v>
+        <v>0.7953823004104521</v>
       </c>
       <c r="N3">
-        <v>0.5218522579956364</v>
+        <v>1.026147084168585</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.671399884731159</v>
+        <v>0.5431234138413572</v>
       </c>
       <c r="C4">
-        <v>0.3904058736894456</v>
+        <v>0.13368649741534</v>
       </c>
       <c r="D4">
-        <v>0.01047391938256581</v>
+        <v>0.006839941306928665</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7523416036944184</v>
+        <v>0.6419647620210895</v>
       </c>
       <c r="G4">
-        <v>0.697550621913777</v>
+        <v>0.4986587300323322</v>
       </c>
       <c r="H4">
-        <v>0.4270414456801888</v>
+        <v>0.5888388394540698</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.152974987754959</v>
+        <v>0.735426960661286</v>
       </c>
       <c r="N4">
-        <v>0.551013523579698</v>
+        <v>1.036889376269599</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.601427570858476</v>
+        <v>0.5225166324047166</v>
       </c>
       <c r="C5">
-        <v>0.3760707065304132</v>
+        <v>0.1291288884313246</v>
       </c>
       <c r="D5">
-        <v>0.01036621877738497</v>
+        <v>0.006781243687541405</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7279017188462831</v>
+        <v>0.6369687186559077</v>
       </c>
       <c r="G5">
-        <v>0.6734945890313213</v>
+        <v>0.4934185108533455</v>
       </c>
       <c r="H5">
-        <v>0.4177852581001105</v>
+        <v>0.5877751230767103</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.053175674263272</v>
+        <v>0.711122172333063</v>
       </c>
       <c r="N5">
-        <v>0.5632217910873685</v>
+        <v>1.041393636395879</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.589817683678689</v>
+        <v>0.5190952981874659</v>
       </c>
       <c r="C6">
-        <v>0.3736902735869023</v>
+        <v>0.1283710904278905</v>
       </c>
       <c r="D6">
-        <v>0.01034833459482698</v>
+        <v>0.006771488753471999</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7238699525804435</v>
+        <v>0.6361471584869207</v>
       </c>
       <c r="G6">
-        <v>0.6695271584036107</v>
+        <v>0.4925553468473396</v>
       </c>
       <c r="H6">
-        <v>0.4162637505431661</v>
+        <v>0.5876045197617543</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.036709757076281</v>
+        <v>0.7070938999189025</v>
       </c>
       <c r="N6">
-        <v>0.5652681225693463</v>
+        <v>1.042149206442909</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.670455586725751</v>
+        <v>0.5428454766141613</v>
       </c>
       <c r="C7">
-        <v>0.390212546687934</v>
+        <v>0.1336250997177615</v>
       </c>
       <c r="D7">
-        <v>0.01047246691666892</v>
+        <v>0.006839150248383774</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7520101943852495</v>
+        <v>0.6418968449020497</v>
       </c>
       <c r="G7">
-        <v>0.6972243469339503</v>
+        <v>0.498587590721371</v>
       </c>
       <c r="H7">
-        <v>0.426915560985293</v>
+        <v>0.5888240896275079</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.151621749025168</v>
+        <v>0.7350986697694424</v>
       </c>
       <c r="N7">
-        <v>0.5511768743562406</v>
+        <v>1.036949609813131</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.027886921252815</v>
+        <v>0.6477061144960601</v>
       </c>
       <c r="C8">
-        <v>0.4631520331569732</v>
+        <v>0.1566623097365039</v>
       </c>
       <c r="D8">
-        <v>0.0110203620084377</v>
+        <v>0.007136467128251667</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8803789629832295</v>
+        <v>0.6684411841047222</v>
       </c>
       <c r="G8">
-        <v>0.8237520249276713</v>
+        <v>0.5262262295796631</v>
       </c>
       <c r="H8">
-        <v>0.476338671250474</v>
+        <v>0.595083877738702</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.676677976168705</v>
+        <v>0.8598137416666276</v>
       </c>
       <c r="N8">
-        <v>0.4918912842136667</v>
+        <v>1.01511813361113</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.737596720805925</v>
+        <v>0.8535249674827128</v>
       </c>
       <c r="C9">
-        <v>0.6067355509789252</v>
+        <v>0.2013033141202811</v>
       </c>
       <c r="D9">
-        <v>0.01209812405524247</v>
+        <v>0.007714447577555461</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.150911346317002</v>
+        <v>0.7247615522806115</v>
       </c>
       <c r="G9">
-        <v>1.091386467393278</v>
+        <v>0.5841566693833897</v>
       </c>
       <c r="H9">
-        <v>0.5837812756789162</v>
+        <v>0.6105380840493524</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.801921329330852</v>
+        <v>1.108900719627187</v>
       </c>
       <c r="N9">
-        <v>0.3872451625239286</v>
+        <v>0.9763315652394695</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.267560343607215</v>
+        <v>1.00486132638764</v>
       </c>
       <c r="C10">
-        <v>0.7129890137879897</v>
+        <v>0.2337750088708788</v>
       </c>
       <c r="D10">
-        <v>0.01289577648031326</v>
+        <v>0.008135597434797859</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.365226926261485</v>
+        <v>0.7687984681687539</v>
       </c>
       <c r="G10">
-        <v>1.304356212208972</v>
+        <v>0.629061108834378</v>
       </c>
       <c r="H10">
-        <v>0.6711408443661355</v>
+        <v>0.6238543339753448</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.726312073316649</v>
+        <v>1.295099883073874</v>
       </c>
       <c r="N10">
-        <v>0.3187632944551737</v>
+        <v>0.9503095634198058</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.511270395719578</v>
+        <v>1.073737015392624</v>
       </c>
       <c r="C11">
-        <v>0.7615811944285724</v>
+        <v>0.2484766278136874</v>
       </c>
       <c r="D11">
-        <v>0.01326093579735499</v>
+        <v>0.008326350915702108</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.4671806055932</v>
+        <v>0.7894219291131037</v>
       </c>
       <c r="G11">
-        <v>1.405966257490093</v>
+        <v>0.6500131542370582</v>
       </c>
       <c r="H11">
-        <v>0.713240297782761</v>
+        <v>0.6303436868291215</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.180392372452985</v>
+        <v>1.380598999299025</v>
       </c>
       <c r="N11">
-        <v>0.2897859065798762</v>
+        <v>0.9390133595165153</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.604001451443651</v>
+        <v>1.099822912534478</v>
       </c>
       <c r="C12">
-        <v>0.7800248754123231</v>
+        <v>0.2540336388264279</v>
       </c>
       <c r="D12">
-        <v>0.01339963326902449</v>
+        <v>0.00839845773159098</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.506536322228612</v>
+        <v>0.7973173888935179</v>
       </c>
       <c r="G12">
-        <v>1.44524097408933</v>
+        <v>0.6580237425172299</v>
       </c>
       <c r="H12">
-        <v>0.7295740646311231</v>
+        <v>0.6328635193489163</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.358605075517033</v>
+        <v>1.41309770270027</v>
       </c>
       <c r="N12">
-        <v>0.2791613331135885</v>
+        <v>0.93481405051811</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.584009361809592</v>
+        <v>1.094204669336705</v>
       </c>
       <c r="C13">
-        <v>0.7760507136885622</v>
+        <v>0.2528372914131012</v>
       </c>
       <c r="D13">
-        <v>0.0133697422565966</v>
+        <v>0.008382934029953049</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.498025197595709</v>
+        <v>0.7956131308137628</v>
       </c>
       <c r="G13">
-        <v>1.436744915793867</v>
+        <v>0.6562950998590793</v>
       </c>
       <c r="H13">
-        <v>0.7260379476093135</v>
+        <v>0.6323180446027834</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.319917439604652</v>
+        <v>1.406092975127137</v>
       </c>
       <c r="N13">
-        <v>0.2814333884915854</v>
+        <v>0.9357149559564899</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.518890162540117</v>
+        <v>1.075883036784717</v>
       </c>
       <c r="C14">
-        <v>0.7630976791767523</v>
+        <v>0.248934011016587</v>
       </c>
       <c r="D14">
-        <v>0.01327233761700697</v>
+        <v>0.008332285785229487</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.470402755474851</v>
+        <v>0.7900697688917973</v>
       </c>
       <c r="G14">
-        <v>1.409180690067529</v>
+        <v>0.6506706509327103</v>
       </c>
       <c r="H14">
-        <v>0.7145759061004924</v>
+        <v>0.630549741109661</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.194918682334134</v>
+        <v>1.383270197267507</v>
       </c>
       <c r="N14">
-        <v>0.2889046047701314</v>
+        <v>0.9386663074721984</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.479062514128827</v>
+        <v>1.064661037837368</v>
       </c>
       <c r="C15">
-        <v>0.7551693067462679</v>
+        <v>0.246541810719151</v>
       </c>
       <c r="D15">
-        <v>0.01321273168665371</v>
+        <v>0.008301245447452033</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.453584107367305</v>
+        <v>0.7866854987420879</v>
       </c>
       <c r="G15">
-        <v>1.392404451508042</v>
+        <v>0.6472355075435416</v>
       </c>
       <c r="H15">
-        <v>0.7076077804399574</v>
+        <v>0.6294747488772714</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.119219142642848</v>
+        <v>1.369306708120732</v>
       </c>
       <c r="N15">
-        <v>0.2935274943793438</v>
+        <v>0.9404843090884611</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.251691707536736</v>
+        <v>1.000360745070509</v>
       </c>
       <c r="C16">
-        <v>0.7098191074630051</v>
+        <v>0.2328128063974475</v>
       </c>
       <c r="D16">
-        <v>0.01287196637583321</v>
+        <v>0.008123113854672681</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.358662490589538</v>
+        <v>0.7674626374550115</v>
       </c>
       <c r="G16">
-        <v>1.297820484352343</v>
+        <v>0.6277024921679981</v>
       </c>
       <c r="H16">
-        <v>0.6684413011079471</v>
+        <v>0.6234389587694977</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.697425335147074</v>
+        <v>1.289528977173958</v>
       </c>
       <c r="N16">
-        <v>0.3207037278648031</v>
+        <v>0.9510587303511873</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.112925454966785</v>
+        <v>0.9609224874187703</v>
       </c>
       <c r="C17">
-        <v>0.6820686383430257</v>
+        <v>0.2243725145512201</v>
       </c>
       <c r="D17">
-        <v>0.01266357051550315</v>
+        <v>0.00801361756575858</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.301644144334091</v>
+        <v>0.7558219599048073</v>
       </c>
       <c r="G17">
-        <v>1.241084845085709</v>
+        <v>0.6158547682277344</v>
       </c>
       <c r="H17">
-        <v>0.6450528231992223</v>
+        <v>0.6198470366601327</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.448158832209373</v>
+        <v>1.240797156975077</v>
       </c>
       <c r="N17">
-        <v>0.337956235096712</v>
+        <v>0.9576847792816388</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.033353873736701</v>
+        <v>0.9382416843322972</v>
       </c>
       <c r="C18">
-        <v>0.6661311825675398</v>
+        <v>0.2195113079946793</v>
       </c>
       <c r="D18">
-        <v>0.01254391790546805</v>
+        <v>0.00795056056973209</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.26926124674327</v>
+        <v>0.7491821127603941</v>
       </c>
       <c r="G18">
-        <v>1.208889090151558</v>
+        <v>0.609089603960939</v>
       </c>
       <c r="H18">
-        <v>0.6318188634707553</v>
+        <v>0.6178216713516633</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.307840612679072</v>
+        <v>1.212842379750754</v>
       </c>
       <c r="N18">
-        <v>0.3480817270753711</v>
+        <v>0.9615468314796018</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.006452114936565</v>
+        <v>0.9305628895500035</v>
       </c>
       <c r="C19">
-        <v>0.660738934681234</v>
+        <v>0.2178642615361639</v>
       </c>
       <c r="D19">
-        <v>0.01250343917088159</v>
+        <v>0.007929197471053584</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.258364836848159</v>
+        <v>0.7469434920818969</v>
       </c>
       <c r="G19">
-        <v>1.19805997408011</v>
+        <v>0.6068074770678891</v>
       </c>
       <c r="H19">
-        <v>0.6273741353438993</v>
+        <v>0.6171428814981255</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.26081867700286</v>
+        <v>1.203389937073382</v>
       </c>
       <c r="N19">
-        <v>0.3515437967068671</v>
+        <v>0.9628631879220251</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.127671735744059</v>
+        <v>0.9651204458577922</v>
       </c>
       <c r="C20">
-        <v>0.6850202045514209</v>
+        <v>0.2252716792654326</v>
       </c>
       <c r="D20">
-        <v>0.01268573211245538</v>
+        <v>0.008025281725828393</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.307670430397195</v>
+        <v>0.7570553733162768</v>
       </c>
       <c r="G20">
-        <v>1.247078428220135</v>
+        <v>0.6171108653690283</v>
       </c>
       <c r="H20">
-        <v>0.6475196031342421</v>
+        <v>0.6202251968854853</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.47436863725288</v>
+        <v>1.245976980269148</v>
       </c>
       <c r="N20">
-        <v>0.3360984983779822</v>
+        <v>0.9569741512005141</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.538004678230038</v>
+        <v>1.081264434704281</v>
       </c>
       <c r="C21">
-        <v>0.76690109585968</v>
+        <v>0.2500807761245767</v>
       </c>
       <c r="D21">
-        <v>0.01330093564385848</v>
+        <v>0.008347165922472755</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.478494892898439</v>
+        <v>0.7916956532723987</v>
       </c>
       <c r="G21">
-        <v>1.41725429887407</v>
+        <v>0.6523206033184579</v>
       </c>
       <c r="H21">
-        <v>0.7179314952416007</v>
+        <v>0.6310674366838782</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.231450179571667</v>
+        <v>1.389970426940437</v>
       </c>
       <c r="N21">
-        <v>0.2867003529699232</v>
+        <v>0.9377972946244526</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.808797725110196</v>
+        <v>1.157195344241927</v>
       </c>
       <c r="C22">
-        <v>0.8206663524725855</v>
+        <v>0.2662356040684415</v>
       </c>
       <c r="D22">
-        <v>0.01370548802471205</v>
+        <v>0.008556789750908678</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.59456265796598</v>
+        <v>0.8148355974900738</v>
       </c>
       <c r="G22">
-        <v>1.533191318360252</v>
+        <v>0.6757786109755273</v>
       </c>
       <c r="H22">
-        <v>0.7662636694215621</v>
+        <v>0.6385176819673291</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.763784772860021</v>
+        <v>1.484793481654194</v>
       </c>
       <c r="N22">
-        <v>0.2564686957820825</v>
+        <v>0.9257208358184972</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.6640084666858</v>
+        <v>1.116667526426681</v>
       </c>
       <c r="C23">
-        <v>0.7919463110590925</v>
+        <v>0.2576189381726124</v>
       </c>
       <c r="D23">
-        <v>0.01348931609211945</v>
+        <v>0.008444980447940509</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.532170008932354</v>
+        <v>0.8024392969156509</v>
       </c>
       <c r="G23">
-        <v>1.470837480053547</v>
+        <v>0.6632174389174281</v>
       </c>
       <c r="H23">
-        <v>0.7402363781462498</v>
+        <v>0.6345078954137762</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.475629376666802</v>
+        <v>1.434116660943033</v>
       </c>
       <c r="N23">
-        <v>0.2724025625352269</v>
+        <v>0.9321243194713968</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.121004302419124</v>
+        <v>0.9632225713133948</v>
       </c>
       <c r="C24">
-        <v>0.6836857500545364</v>
+        <v>0.2248651942070126</v>
       </c>
       <c r="D24">
-        <v>0.01267571237253762</v>
+        <v>0.008020008688642832</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.304944715504718</v>
+        <v>0.7564975835463486</v>
       </c>
       <c r="G24">
-        <v>1.244367422424602</v>
+        <v>0.6165428398712436</v>
       </c>
       <c r="H24">
-        <v>0.6464037142215204</v>
+        <v>0.6200541070856502</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.462509977882902</v>
+        <v>1.24363499024804</v>
       </c>
       <c r="N24">
-        <v>0.3369377396422912</v>
+        <v>0.9572952622039921</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.544345481808477</v>
+        <v>0.7978247470900328</v>
       </c>
       <c r="C25">
-        <v>0.5677895276612617</v>
+        <v>0.189284002399404</v>
       </c>
       <c r="D25">
-        <v>0.01180585354286734</v>
+        <v>0.007558673130613869</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.07532009758576</v>
+        <v>0.7090627141532053</v>
       </c>
       <c r="G25">
-        <v>1.016470385331061</v>
+        <v>0.5680784676859787</v>
       </c>
       <c r="H25">
-        <v>0.5533964268251879</v>
+        <v>0.6060145173194371</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.483757197302026</v>
+        <v>1.040987353227294</v>
       </c>
       <c r="N25">
-        <v>0.4141855910072927</v>
+        <v>0.9863913484795663</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6761305404375832</v>
+        <v>2.125217318590273</v>
       </c>
       <c r="C2">
-        <v>0.1628680422044511</v>
+        <v>0.4829364542879944</v>
       </c>
       <c r="D2">
-        <v>0.007216698647265929</v>
+        <v>0.01116892450933449</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6759200295582559</v>
+        <v>0.9162977416378055</v>
       </c>
       <c r="G2">
-        <v>0.5339648941648818</v>
+        <v>0.8592091315937154</v>
       </c>
       <c r="H2">
-        <v>0.5969941988219176</v>
+        <v>0.4903759081808232</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8938952887598077</v>
+        <v>2.824243821706972</v>
       </c>
       <c r="N2">
-        <v>1.009474523385228</v>
+        <v>0.4765705474189517</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5937072249151925</v>
+        <v>1.843521035541585</v>
       </c>
       <c r="C3">
-        <v>0.1448294142447537</v>
+        <v>0.4255872242954695</v>
       </c>
       <c r="D3">
-        <v>0.006983636417057681</v>
+        <v>0.01073822020231319</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6545518479094881</v>
+        <v>0.8134488286849262</v>
       </c>
       <c r="G3">
-        <v>0.5118022218975113</v>
+        <v>0.7577447148732261</v>
       </c>
       <c r="H3">
-        <v>0.5916943411649953</v>
+        <v>0.4504128538263217</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7953823004104521</v>
+        <v>2.402603324375903</v>
       </c>
       <c r="N3">
-        <v>1.026147084168585</v>
+        <v>0.5218522579956932</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5431234138413572</v>
+        <v>1.671399884731244</v>
       </c>
       <c r="C4">
-        <v>0.13368649741534</v>
+        <v>0.3904058736895877</v>
       </c>
       <c r="D4">
-        <v>0.006839941306928665</v>
+        <v>0.01047391938256759</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6419647620210895</v>
+        <v>0.75234160369439</v>
       </c>
       <c r="G4">
-        <v>0.4986587300323322</v>
+        <v>0.6975506219138481</v>
       </c>
       <c r="H4">
-        <v>0.5888388394540698</v>
+        <v>0.4270414456801888</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.735426960661286</v>
+        <v>2.152974987754959</v>
       </c>
       <c r="N4">
-        <v>1.036889376269599</v>
+        <v>0.5510135235796216</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5225166324047166</v>
+        <v>1.601427570858334</v>
       </c>
       <c r="C5">
-        <v>0.1291288884313246</v>
+        <v>0.37607070653047</v>
       </c>
       <c r="D5">
-        <v>0.006781243687541405</v>
+        <v>0.01036621877716648</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6369687186559077</v>
+        <v>0.7279017188462831</v>
       </c>
       <c r="G5">
-        <v>0.4934185108533455</v>
+        <v>0.6734945890312929</v>
       </c>
       <c r="H5">
-        <v>0.5877751230767103</v>
+        <v>0.4177852580999826</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.711122172333063</v>
+        <v>2.053175674263258</v>
       </c>
       <c r="N5">
-        <v>1.041393636395879</v>
+        <v>0.5632217910873152</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5190952981874659</v>
+        <v>1.589817683678547</v>
       </c>
       <c r="C6">
-        <v>0.1283710904278905</v>
+        <v>0.3736902735869876</v>
       </c>
       <c r="D6">
-        <v>0.006771488753471999</v>
+        <v>0.0103483345946529</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6361471584869207</v>
+        <v>0.7238699525804435</v>
       </c>
       <c r="G6">
-        <v>0.4925553468473396</v>
+        <v>0.6695271584037101</v>
       </c>
       <c r="H6">
-        <v>0.5876045197617543</v>
+        <v>0.4162637505432798</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7070938999189025</v>
+        <v>2.036709757076267</v>
       </c>
       <c r="N6">
-        <v>1.042149206442909</v>
+        <v>0.5652681225694067</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5428454766141613</v>
+        <v>1.67045558672578</v>
       </c>
       <c r="C7">
-        <v>0.1336250997177615</v>
+        <v>0.3902125466878488</v>
       </c>
       <c r="D7">
-        <v>0.006839150248383774</v>
+        <v>0.0104724669166103</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6418968449020497</v>
+        <v>0.7520101943852353</v>
       </c>
       <c r="G7">
-        <v>0.498587590721371</v>
+        <v>0.6972243469339503</v>
       </c>
       <c r="H7">
-        <v>0.5888240896275079</v>
+        <v>0.4269155609851794</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7350986697694424</v>
+        <v>2.151621749025153</v>
       </c>
       <c r="N7">
-        <v>1.036949609813131</v>
+        <v>0.5511768743562495</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6477061144960601</v>
+        <v>2.027886921252758</v>
       </c>
       <c r="C8">
-        <v>0.1566623097365039</v>
+        <v>0.4631520331569448</v>
       </c>
       <c r="D8">
-        <v>0.007136467128251667</v>
+        <v>0.01102036200831691</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6684411841047222</v>
+        <v>0.8803789629832011</v>
       </c>
       <c r="G8">
-        <v>0.5262262295796631</v>
+        <v>0.8237520249275718</v>
       </c>
       <c r="H8">
-        <v>0.595083877738702</v>
+        <v>0.4763386712505877</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8598137416666276</v>
+        <v>2.676677976168705</v>
       </c>
       <c r="N8">
-        <v>1.01511813361113</v>
+        <v>0.4918912842136454</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8535249674827128</v>
+        <v>2.737596720805925</v>
       </c>
       <c r="C9">
-        <v>0.2013033141202811</v>
+        <v>0.6067355509785841</v>
       </c>
       <c r="D9">
-        <v>0.007714447577555461</v>
+        <v>0.01209812405516786</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7247615522806115</v>
+        <v>1.150911346317002</v>
       </c>
       <c r="G9">
-        <v>0.5841566693833897</v>
+        <v>1.091386467393278</v>
       </c>
       <c r="H9">
-        <v>0.6105380840493524</v>
+        <v>0.5837812756789162</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.108900719627187</v>
+        <v>3.801921329330881</v>
       </c>
       <c r="N9">
-        <v>0.9763315652394695</v>
+        <v>0.3872451625239037</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.00486132638764</v>
+        <v>3.267560343607101</v>
       </c>
       <c r="C10">
-        <v>0.2337750088708788</v>
+        <v>0.7129890137879045</v>
       </c>
       <c r="D10">
-        <v>0.008135597434797859</v>
+        <v>0.01289577648030615</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7687984681687539</v>
+        <v>1.365226926261485</v>
       </c>
       <c r="G10">
-        <v>0.629061108834378</v>
+        <v>1.304356212209058</v>
       </c>
       <c r="H10">
-        <v>0.6238543339753448</v>
+        <v>0.6711408443661355</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.295099883073874</v>
+        <v>4.726312073316592</v>
       </c>
       <c r="N10">
-        <v>0.9503095634198058</v>
+        <v>0.3187632944551204</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.073737015392624</v>
+        <v>3.511270395719464</v>
       </c>
       <c r="C11">
-        <v>0.2484766278136874</v>
+        <v>0.7615811944286577</v>
       </c>
       <c r="D11">
-        <v>0.008326350915702108</v>
+        <v>0.01326093579719512</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7894219291131037</v>
+        <v>1.467180605593214</v>
       </c>
       <c r="G11">
-        <v>0.6500131542370582</v>
+        <v>1.405966257490064</v>
       </c>
       <c r="H11">
-        <v>0.6303436868291215</v>
+        <v>0.7132402977827894</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.380598999299025</v>
+        <v>5.180392372452971</v>
       </c>
       <c r="N11">
-        <v>0.9390133595165153</v>
+        <v>0.2897859065798798</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.099822912534478</v>
+        <v>3.604001451443764</v>
       </c>
       <c r="C12">
-        <v>0.2540336388264279</v>
+        <v>0.7800248754123231</v>
       </c>
       <c r="D12">
-        <v>0.00839845773159098</v>
+        <v>0.0133996332691062</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7973173888935179</v>
+        <v>1.506536322228612</v>
       </c>
       <c r="G12">
-        <v>0.6580237425172299</v>
+        <v>1.445240974089387</v>
       </c>
       <c r="H12">
-        <v>0.6328635193489163</v>
+        <v>0.7295740646310094</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.41309770270027</v>
+        <v>5.358605075517019</v>
       </c>
       <c r="N12">
-        <v>0.93481405051811</v>
+        <v>0.279161333113592</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.094204669336705</v>
+        <v>3.584009361809649</v>
       </c>
       <c r="C13">
-        <v>0.2528372914131012</v>
+        <v>0.7760507136885906</v>
       </c>
       <c r="D13">
-        <v>0.008382934029953049</v>
+        <v>0.01336974225658594</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7956131308137628</v>
+        <v>1.498025197595723</v>
       </c>
       <c r="G13">
-        <v>0.6562950998590793</v>
+        <v>1.436744915793952</v>
       </c>
       <c r="H13">
-        <v>0.6323180446027834</v>
+        <v>0.7260379476093988</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.406092975127137</v>
+        <v>5.31991743960468</v>
       </c>
       <c r="N13">
-        <v>0.9357149559564899</v>
+        <v>0.281433388491628</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.075883036784717</v>
+        <v>3.51889016254006</v>
       </c>
       <c r="C14">
-        <v>0.248934011016587</v>
+        <v>0.7630976791766386</v>
       </c>
       <c r="D14">
-        <v>0.008332285785229487</v>
+        <v>0.01327233761700342</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7900697688917973</v>
+        <v>1.470402755474851</v>
       </c>
       <c r="G14">
-        <v>0.6506706509327103</v>
+        <v>1.409180690067501</v>
       </c>
       <c r="H14">
-        <v>0.630549741109661</v>
+        <v>0.7145759061004924</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.383270197267507</v>
+        <v>5.194918682334119</v>
       </c>
       <c r="N14">
-        <v>0.9386663074721984</v>
+        <v>0.2889046047701243</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.064661037837368</v>
+        <v>3.479062514128884</v>
       </c>
       <c r="C15">
-        <v>0.246541810719151</v>
+        <v>0.7551693067463816</v>
       </c>
       <c r="D15">
-        <v>0.008301245447452033</v>
+        <v>0.01321273168676385</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7866854987420879</v>
+        <v>1.453584107367263</v>
       </c>
       <c r="G15">
-        <v>0.6472355075435416</v>
+        <v>1.392404451507986</v>
       </c>
       <c r="H15">
-        <v>0.6294747488772714</v>
+        <v>0.707607780439929</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.369306708120732</v>
+        <v>5.119219142642834</v>
       </c>
       <c r="N15">
-        <v>0.9404843090884611</v>
+        <v>0.2935274943793544</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.000360745070509</v>
+        <v>3.251691707536565</v>
       </c>
       <c r="C16">
-        <v>0.2328128063974475</v>
+        <v>0.7098191074631472</v>
       </c>
       <c r="D16">
-        <v>0.008123113854672681</v>
+        <v>0.01287196637580124</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7674626374550115</v>
+        <v>1.358662490589538</v>
       </c>
       <c r="G16">
-        <v>0.6277024921679981</v>
+        <v>1.2978204843524</v>
       </c>
       <c r="H16">
-        <v>0.6234389587694977</v>
+        <v>0.668441301107805</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.289528977173958</v>
+        <v>4.697425335147102</v>
       </c>
       <c r="N16">
-        <v>0.9510587303511873</v>
+        <v>0.320703727864796</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9609224874187703</v>
+        <v>3.112925454966728</v>
       </c>
       <c r="C17">
-        <v>0.2243725145512201</v>
+        <v>0.6820686383428836</v>
       </c>
       <c r="D17">
-        <v>0.00801361756575858</v>
+        <v>0.01266357051550315</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7558219599048073</v>
+        <v>1.301644144334105</v>
       </c>
       <c r="G17">
-        <v>0.6158547682277344</v>
+        <v>1.241084845085737</v>
       </c>
       <c r="H17">
-        <v>0.6198470366601327</v>
+        <v>0.6450528231992223</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.240797156975077</v>
+        <v>4.448158832209359</v>
       </c>
       <c r="N17">
-        <v>0.9576847792816388</v>
+        <v>0.337956235096712</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9382416843322972</v>
+        <v>3.03335387373653</v>
       </c>
       <c r="C18">
-        <v>0.2195113079946793</v>
+        <v>0.6661311825677956</v>
       </c>
       <c r="D18">
-        <v>0.00795056056973209</v>
+        <v>0.01254391790532594</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7491821127603941</v>
+        <v>1.269261246743255</v>
       </c>
       <c r="G18">
-        <v>0.609089603960939</v>
+        <v>1.208889090151644</v>
       </c>
       <c r="H18">
-        <v>0.6178216713516633</v>
+        <v>0.6318188634707838</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.212842379750754</v>
+        <v>4.307840612679101</v>
       </c>
       <c r="N18">
-        <v>0.9615468314796018</v>
+        <v>0.3480817270753818</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9305628895500035</v>
+        <v>3.006452114936678</v>
       </c>
       <c r="C19">
-        <v>0.2178642615361639</v>
+        <v>0.6607389346810919</v>
       </c>
       <c r="D19">
-        <v>0.007929197471053584</v>
+        <v>0.01250343917087804</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7469434920818969</v>
+        <v>1.258364836848173</v>
       </c>
       <c r="G19">
-        <v>0.6068074770678891</v>
+        <v>1.198059974080081</v>
       </c>
       <c r="H19">
-        <v>0.6171428814981255</v>
+        <v>0.627374135344013</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.203389937073382</v>
+        <v>4.260818677002888</v>
       </c>
       <c r="N19">
-        <v>0.9628631879220251</v>
+        <v>0.3515437967068671</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9651204458577922</v>
+        <v>3.127671735743888</v>
       </c>
       <c r="C20">
-        <v>0.2252716792654326</v>
+        <v>0.6850202045511651</v>
       </c>
       <c r="D20">
-        <v>0.008025281725828393</v>
+        <v>0.01268573211249091</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7570553733162768</v>
+        <v>1.307670430397181</v>
       </c>
       <c r="G20">
-        <v>0.6171108653690283</v>
+        <v>1.247078428220163</v>
       </c>
       <c r="H20">
-        <v>0.6202251968854853</v>
+        <v>0.6475196031342705</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.245976980269148</v>
+        <v>4.474368637252851</v>
       </c>
       <c r="N20">
-        <v>0.9569741512005141</v>
+        <v>0.3360984983779929</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.081264434704281</v>
+        <v>3.538004678230038</v>
       </c>
       <c r="C21">
-        <v>0.2500807761245767</v>
+        <v>0.7669010958597369</v>
       </c>
       <c r="D21">
-        <v>0.008347165922472755</v>
+        <v>0.01330093564394375</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7916956532723987</v>
+        <v>1.478494892898411</v>
       </c>
       <c r="G21">
-        <v>0.6523206033184579</v>
+        <v>1.417254298874042</v>
       </c>
       <c r="H21">
-        <v>0.6310674366838782</v>
+        <v>0.7179314952416291</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.389970426940437</v>
+        <v>5.231450179571667</v>
       </c>
       <c r="N21">
-        <v>0.9377972946244526</v>
+        <v>0.2867003529698877</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.157195344241927</v>
+        <v>3.808797725110196</v>
       </c>
       <c r="C22">
-        <v>0.2662356040684415</v>
+        <v>0.8206663524724434</v>
       </c>
       <c r="D22">
-        <v>0.008556789750908678</v>
+        <v>0.01370548802479732</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8148355974900738</v>
+        <v>1.594562657965994</v>
       </c>
       <c r="G22">
-        <v>0.6757786109755273</v>
+        <v>1.533191318360338</v>
       </c>
       <c r="H22">
-        <v>0.6385176819673291</v>
+        <v>0.7662636694215337</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.484793481654194</v>
+        <v>5.763784772860063</v>
       </c>
       <c r="N22">
-        <v>0.9257208358184972</v>
+        <v>0.2564686957820257</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.116667526426681</v>
+        <v>3.66400846668563</v>
       </c>
       <c r="C23">
-        <v>0.2576189381726124</v>
+        <v>0.7919463110595473</v>
       </c>
       <c r="D23">
-        <v>0.008444980447940509</v>
+        <v>0.01348931609222603</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8024392969156509</v>
+        <v>1.532170008932368</v>
       </c>
       <c r="G23">
-        <v>0.6632174389174281</v>
+        <v>1.470837480053603</v>
       </c>
       <c r="H23">
-        <v>0.6345078954137762</v>
+        <v>0.7402363781462213</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.434116660943033</v>
+        <v>5.475629376666845</v>
       </c>
       <c r="N23">
-        <v>0.9321243194713968</v>
+        <v>0.2724025625352269</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9632225713133948</v>
+        <v>3.121004302419067</v>
       </c>
       <c r="C24">
-        <v>0.2248651942070126</v>
+        <v>0.6836857500547069</v>
       </c>
       <c r="D24">
-        <v>0.008020008688642832</v>
+        <v>0.01267571237223208</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7564975835463486</v>
+        <v>1.304944715504732</v>
       </c>
       <c r="G24">
-        <v>0.6165428398712436</v>
+        <v>1.244367422424602</v>
       </c>
       <c r="H24">
-        <v>0.6200541070856502</v>
+        <v>0.6464037142215204</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.24363499024804</v>
+        <v>4.462509977882917</v>
       </c>
       <c r="N24">
-        <v>0.9572952622039921</v>
+        <v>0.3369377396422735</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7978247470900328</v>
+        <v>2.544345481808534</v>
       </c>
       <c r="C25">
-        <v>0.189284002399404</v>
+        <v>0.5677895276612617</v>
       </c>
       <c r="D25">
-        <v>0.007558673130613869</v>
+        <v>0.01180585354293484</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7090627141532053</v>
+        <v>1.07532009758576</v>
       </c>
       <c r="G25">
-        <v>0.5680784676859787</v>
+        <v>1.016470385331061</v>
       </c>
       <c r="H25">
-        <v>0.6060145173194371</v>
+        <v>0.5533964268251879</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.040987353227294</v>
+        <v>3.483757197302069</v>
       </c>
       <c r="N25">
-        <v>0.9863913484795663</v>
+        <v>0.4141855910072838</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.125217318590273</v>
+        <v>2.183132782456198</v>
       </c>
       <c r="C2">
-        <v>0.4829364542879944</v>
+        <v>0.7061028988332225</v>
       </c>
       <c r="D2">
-        <v>0.01116892450933449</v>
+        <v>0.125904700213411</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9162977416378055</v>
+        <v>1.190131775783144</v>
       </c>
       <c r="G2">
-        <v>0.8592091315937154</v>
+        <v>0.8570354842943431</v>
       </c>
       <c r="H2">
-        <v>0.4903759081808232</v>
+        <v>0.0002476811853877603</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001126315634481401</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5628335694315041</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.432480181885488</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1870074378273969</v>
       </c>
       <c r="M2">
-        <v>2.824243821706972</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4765705474189517</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.749540949884171</v>
+      </c>
+      <c r="P2">
+        <v>0.7709349690562952</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.843521035541585</v>
+        <v>1.899028912360308</v>
       </c>
       <c r="C3">
-        <v>0.4255872242954695</v>
+        <v>0.6138185690087425</v>
       </c>
       <c r="D3">
-        <v>0.01073822020231319</v>
+        <v>0.1143331439404065</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8134488286849262</v>
+        <v>1.10141119783259</v>
       </c>
       <c r="G3">
-        <v>0.7577447148732261</v>
+        <v>0.7851294029758122</v>
       </c>
       <c r="H3">
-        <v>0.4504128538263217</v>
+        <v>0.001024763998449751</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0005263036048921421</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5337524159963749</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4171335246499979</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1702169711571386</v>
       </c>
       <c r="M3">
-        <v>2.402603324375903</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5218522579956932</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6549984188441513</v>
+      </c>
+      <c r="P3">
+        <v>0.7990917067949574</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.671399884731244</v>
+        <v>1.724134056350806</v>
       </c>
       <c r="C4">
-        <v>0.3904058736895877</v>
+        <v>0.5575867626218951</v>
       </c>
       <c r="D4">
-        <v>0.01047391938256759</v>
+        <v>0.1072710700929562</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.75234160369439</v>
+        <v>1.04760126405148</v>
       </c>
       <c r="G4">
-        <v>0.6975506219138481</v>
+        <v>0.7415741360125878</v>
       </c>
       <c r="H4">
-        <v>0.4270414456801888</v>
+        <v>0.001793868281217748</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004257028377332439</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5162837368097115</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4079735684826424</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1598838030516845</v>
       </c>
       <c r="M4">
-        <v>2.152974987754959</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5510135235796216</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5970135496486364</v>
+      </c>
+      <c r="P4">
+        <v>0.8169813047955525</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.601427570858334</v>
+        <v>1.651421157227503</v>
       </c>
       <c r="C5">
-        <v>0.37607070653047</v>
+        <v>0.5354059077784541</v>
       </c>
       <c r="D5">
-        <v>0.01036621877716648</v>
+        <v>0.1045038120553627</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7279017188462831</v>
+        <v>1.024946168935969</v>
       </c>
       <c r="G5">
-        <v>0.6734945890312929</v>
+        <v>0.7230632317198626</v>
       </c>
       <c r="H5">
-        <v>0.4177852580999826</v>
+        <v>0.002178623050897555</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0005134587093165166</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5088003341033698</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.403747463450312</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.155650544039311</v>
       </c>
       <c r="M5">
-        <v>2.053175674263258</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5632217910873152</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5733829201742893</v>
+      </c>
+      <c r="P5">
+        <v>0.8244573195681717</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.589817683678547</v>
+        <v>1.637729545542868</v>
       </c>
       <c r="C6">
-        <v>0.3736902735869876</v>
+        <v>0.5325108981961364</v>
       </c>
       <c r="D6">
-        <v>0.0103483345946529</v>
+        <v>0.1041691167298566</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7238699525804435</v>
+        <v>1.020118181087241</v>
       </c>
       <c r="G6">
-        <v>0.6695271584037101</v>
+        <v>0.7189010111696206</v>
       </c>
       <c r="H6">
-        <v>0.4162637505432798</v>
+        <v>0.002248681751881754</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0006192163063136746</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5070061746257153</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4023717920681094</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1549305867000967</v>
       </c>
       <c r="M6">
-        <v>2.036709757076267</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5652681225694067</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5694462293103726</v>
+      </c>
+      <c r="P6">
+        <v>0.8257581509133054</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.67045558672578</v>
+        <v>1.718740369054501</v>
       </c>
       <c r="C7">
-        <v>0.3902125466878488</v>
+        <v>0.5594298992142797</v>
       </c>
       <c r="D7">
-        <v>0.0104724669166103</v>
+        <v>0.1075736132507146</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7520101943852353</v>
+        <v>1.04435632903558</v>
       </c>
       <c r="G7">
-        <v>0.6972243469339503</v>
+        <v>0.73832518684614</v>
       </c>
       <c r="H7">
-        <v>0.4269155609851794</v>
+        <v>0.001803693329836875</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0006491331834537206</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5146606021511815</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4060644411234762</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1597820935687366</v>
       </c>
       <c r="M7">
-        <v>2.151621749025153</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5511768743562495</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.596658084128542</v>
+      </c>
+      <c r="P7">
+        <v>0.8172351283849171</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.027886921252758</v>
+        <v>2.079349541928877</v>
       </c>
       <c r="C8">
-        <v>0.4631520331569448</v>
+        <v>0.6770450677666986</v>
       </c>
       <c r="D8">
-        <v>0.01102036200831691</v>
+        <v>0.1223574139671655</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8803789629832011</v>
+        <v>1.155492588524041</v>
       </c>
       <c r="G8">
-        <v>0.8237520249275718</v>
+        <v>0.8281239587254277</v>
       </c>
       <c r="H8">
-        <v>0.4763386712505877</v>
+        <v>0.0004558569135149071</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001121518974961155</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5507047690013422</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4246778929835386</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.181162579355842</v>
       </c>
       <c r="M8">
-        <v>2.676677976168705</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4918912842136454</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7168734715414615</v>
+      </c>
+      <c r="P8">
+        <v>0.7807888739029529</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.737596720805925</v>
+        <v>2.7915609956857</v>
       </c>
       <c r="C9">
-        <v>0.6067355509785841</v>
+        <v>0.9078652282037751</v>
       </c>
       <c r="D9">
-        <v>0.01209812405516786</v>
+        <v>0.1511526933129232</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.150911346317002</v>
+        <v>1.384741208734127</v>
       </c>
       <c r="G9">
-        <v>1.091386467393278</v>
+        <v>1.015072124163709</v>
       </c>
       <c r="H9">
-        <v>0.5837812756789162</v>
+        <v>0.0003048195732942016</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004045868931649821</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.627520619215332</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4668278810437769</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2231232430196926</v>
       </c>
       <c r="M9">
-        <v>3.801921329330881</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3872451625239037</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.9535337805586792</v>
+      </c>
+      <c r="P9">
+        <v>0.7139166939722443</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.267560343607101</v>
+        <v>3.303953967794143</v>
       </c>
       <c r="C10">
-        <v>0.7129890137879045</v>
+        <v>1.075906477217643</v>
       </c>
       <c r="D10">
-        <v>0.01289577648030615</v>
+        <v>0.1676066047526774</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.365226926261485</v>
+        <v>1.53356762977721</v>
       </c>
       <c r="G10">
-        <v>1.304356212209058</v>
+        <v>1.140642773601854</v>
       </c>
       <c r="H10">
-        <v>0.6711408443661355</v>
+        <v>0.002017759534849617</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.007916737030253529</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6784724492649445</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4924644742838993</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2417005814116777</v>
       </c>
       <c r="M10">
-        <v>4.726312073316592</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3187632944551204</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.107524343561884</v>
+      </c>
+      <c r="P10">
+        <v>0.6701567018782448</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.511270395719464</v>
+        <v>3.460885119557418</v>
       </c>
       <c r="C11">
-        <v>0.7615811944286577</v>
+        <v>1.103925882967019</v>
       </c>
       <c r="D11">
-        <v>0.01326093579719512</v>
+        <v>0.1337776911036457</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.467180605593214</v>
+        <v>1.402445015448194</v>
       </c>
       <c r="G11">
-        <v>1.405966257490064</v>
+        <v>1.068127066434982</v>
       </c>
       <c r="H11">
-        <v>0.7132402977827894</v>
+        <v>0.02050106051563105</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.009640898372840212</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6371892260926444</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4490751908167638</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1632602691255727</v>
       </c>
       <c r="M11">
-        <v>5.180392372452971</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2897859065798798</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.000681199023724</v>
+      </c>
+      <c r="P11">
+        <v>0.6739870577849914</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.604001451443764</v>
+        <v>3.491089752092137</v>
       </c>
       <c r="C12">
-        <v>0.7800248754123231</v>
+        <v>1.087871000138989</v>
       </c>
       <c r="D12">
-        <v>0.0133996332691062</v>
+        <v>0.1061003633154272</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.506536322228612</v>
+        <v>1.269094363810282</v>
       </c>
       <c r="G12">
-        <v>1.445240974089387</v>
+        <v>0.9865258980392184</v>
       </c>
       <c r="H12">
-        <v>0.7295740646310094</v>
+        <v>0.05888563814226444</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.009845277801172614</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5944262326009095</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4110593284690154</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1214806583152654</v>
       </c>
       <c r="M12">
-        <v>5.358605075517019</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.279161333113592</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.883631648929935</v>
+      </c>
+      <c r="P12">
+        <v>0.6930605047014495</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.584009361809649</v>
+        <v>3.418115513255202</v>
       </c>
       <c r="C13">
-        <v>0.7760507136885906</v>
+        <v>1.04047307035421</v>
       </c>
       <c r="D13">
-        <v>0.01336974225658594</v>
+        <v>0.08215712013937093</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.498025197595723</v>
+        <v>1.122163471948994</v>
       </c>
       <c r="G13">
-        <v>1.436744915793952</v>
+        <v>0.8886105875553483</v>
       </c>
       <c r="H13">
-        <v>0.7260379476093988</v>
+        <v>0.1141809855354268</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.009154002600253008</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5456707980730897</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3720506905190959</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1051073807041911</v>
       </c>
       <c r="M13">
-        <v>5.31991743960468</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.281433388491628</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7528496227806514</v>
+      </c>
+      <c r="P13">
+        <v>0.7242753952346845</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.51889016254006</v>
+        <v>3.319252509833859</v>
       </c>
       <c r="C14">
-        <v>0.7630976791766386</v>
+        <v>0.9940599108159063</v>
       </c>
       <c r="D14">
-        <v>0.01327233761700342</v>
+        <v>0.06791058275299378</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.470402755474851</v>
+        <v>1.014049274695097</v>
       </c>
       <c r="G14">
-        <v>1.409180690067501</v>
+        <v>0.8128199018190401</v>
       </c>
       <c r="H14">
-        <v>0.7145759061004924</v>
+        <v>0.1631838839814037</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.008374747368231183</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5088394440920467</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3442389463794626</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1087681462425305</v>
       </c>
       <c r="M14">
-        <v>5.194918682334119</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2889046047701243</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6568294001864388</v>
+      </c>
+      <c r="P14">
+        <v>0.7523578609520811</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.479062514128884</v>
+        <v>3.271636568554584</v>
       </c>
       <c r="C15">
-        <v>0.7551693067463816</v>
+        <v>0.9770783976462951</v>
       </c>
       <c r="D15">
-        <v>0.01321273168676385</v>
+        <v>0.06468438564078838</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.453584107367263</v>
+        <v>0.9836154047623893</v>
       </c>
       <c r="G15">
-        <v>1.392404451507986</v>
+        <v>0.7898692248431161</v>
       </c>
       <c r="H15">
-        <v>0.707607780439929</v>
+        <v>0.1755603991835102</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.008105449011900134</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4981007327345139</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3365908912343762</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1113351159474085</v>
       </c>
       <c r="M15">
-        <v>5.119219142642834</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.2935274943793544</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6300407377849808</v>
+      </c>
+      <c r="P15">
+        <v>0.7611735826514021</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.251691707536565</v>
+        <v>3.064394034202451</v>
       </c>
       <c r="C16">
-        <v>0.7098191074631472</v>
+        <v>0.9165663626401397</v>
       </c>
       <c r="D16">
-        <v>0.01287196637580124</v>
+        <v>0.06324188538597042</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.358662490589538</v>
+        <v>0.9506781309045493</v>
       </c>
       <c r="G16">
-        <v>1.2978204843524</v>
+        <v>0.7554882488704919</v>
       </c>
       <c r="H16">
-        <v>0.668441301107805</v>
+        <v>0.1622783968043109</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.006592824695618837</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.48572906493456</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.332778468675734</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1071454130150968</v>
       </c>
       <c r="M16">
-        <v>4.697425335147102</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.320703727864796</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5945449168782204</v>
+      </c>
+      <c r="P16">
+        <v>0.7707631098024734</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.112925454966728</v>
+        <v>2.957922199142558</v>
       </c>
       <c r="C17">
-        <v>0.6820686383428836</v>
+        <v>0.8948714464111163</v>
       </c>
       <c r="D17">
-        <v>0.01266357051550315</v>
+        <v>0.06919574104832193</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.301644144334105</v>
+        <v>0.9818837508139922</v>
       </c>
       <c r="G17">
-        <v>1.241084845085737</v>
+        <v>0.7689136825814415</v>
       </c>
       <c r="H17">
-        <v>0.6450528231992223</v>
+        <v>0.1242690335173506</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.005894715477950285</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4956379455549467</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3444098099215758</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09944941350687131</v>
       </c>
       <c r="M17">
-        <v>4.448158832209359</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.337956235096712</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.617064422064999</v>
+      </c>
+      <c r="P17">
+        <v>0.7632580596739515</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.03335387373653</v>
+        <v>2.9291407004593</v>
       </c>
       <c r="C18">
-        <v>0.6661311825677956</v>
+        <v>0.9020602091825936</v>
       </c>
       <c r="D18">
-        <v>0.01254391790532594</v>
+        <v>0.08449673390114754</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.269261246743255</v>
+        <v>1.076453829942736</v>
       </c>
       <c r="G18">
-        <v>1.208889090151644</v>
+        <v>0.8281539490221661</v>
       </c>
       <c r="H18">
-        <v>0.6318188634707838</v>
+        <v>0.07142233624558258</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005479520569615204</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5273232347944798</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3726018198242684</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1015388364386851</v>
       </c>
       <c r="M18">
-        <v>4.307840612679101</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3480817270753818</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.6954303233232366</v>
+      </c>
+      <c r="P18">
+        <v>0.7425174777905923</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.006452114936678</v>
+        <v>2.956075711807387</v>
       </c>
       <c r="C19">
-        <v>0.6607389346810919</v>
+        <v>0.9361575063855412</v>
       </c>
       <c r="D19">
-        <v>0.01250343917087804</v>
+        <v>0.1103899465831759</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.258364836848173</v>
+        <v>1.215497441633005</v>
       </c>
       <c r="G19">
-        <v>1.198059974080081</v>
+        <v>0.917351084804622</v>
       </c>
       <c r="H19">
-        <v>0.627374135344013</v>
+        <v>0.0263868600110726</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.005800471794026762</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.572715363900457</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4104908787958905</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1316802257861092</v>
       </c>
       <c r="M19">
-        <v>4.260818677002888</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3515437967068671</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.818890850261397</v>
+      </c>
+      <c r="P19">
+        <v>0.718990432558865</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.127671735743888</v>
+        <v>3.154849094581493</v>
       </c>
       <c r="C20">
-        <v>0.6850202045511651</v>
+        <v>1.038148040111651</v>
       </c>
       <c r="D20">
-        <v>0.01268573211249091</v>
+        <v>0.1641100347181634</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.307670430397181</v>
+        <v>1.483985803610722</v>
       </c>
       <c r="G20">
-        <v>1.247078428220163</v>
+        <v>1.097300138418248</v>
       </c>
       <c r="H20">
-        <v>0.6475196031342705</v>
+        <v>0.001413367825202183</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.007426731596684277</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6598519126907547</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4795928595195136</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2361348942035022</v>
       </c>
       <c r="M20">
-        <v>4.474368637252851</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3360984983779929</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.066033426558953</v>
+      </c>
+      <c r="P20">
+        <v>0.6825228542703456</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.538004678230038</v>
+        <v>3.563053472122419</v>
       </c>
       <c r="C21">
-        <v>0.7669010958597369</v>
+        <v>1.176347413272936</v>
       </c>
       <c r="D21">
-        <v>0.01330093564394375</v>
+        <v>0.1847769424105792</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.478494892898411</v>
+        <v>1.637423021099778</v>
       </c>
       <c r="G21">
-        <v>1.417254298874042</v>
+        <v>1.220079318644594</v>
       </c>
       <c r="H21">
-        <v>0.7179314952416291</v>
+        <v>0.003310455810926483</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.0110021481382665</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7122029998787696</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5107421509897492</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2697479722520342</v>
       </c>
       <c r="M21">
-        <v>5.231450179571667</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.2867003529698877</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.216939286708083</v>
+      </c>
+      <c r="P21">
+        <v>0.6471553528024536</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.808797725110196</v>
+        <v>3.832077479303848</v>
       </c>
       <c r="C22">
-        <v>0.8206663524724434</v>
+        <v>1.261664903411031</v>
       </c>
       <c r="D22">
-        <v>0.01370548802479732</v>
+        <v>0.1952578915509235</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.594562657965994</v>
+        <v>1.731180216801945</v>
       </c>
       <c r="G22">
-        <v>1.533191318360338</v>
+        <v>1.29799507870689</v>
       </c>
       <c r="H22">
-        <v>0.7662636694215337</v>
+        <v>0.004983888631413858</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01345018773013518</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7453339494404645</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5308105150097333</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2855504221360263</v>
       </c>
       <c r="M22">
-        <v>5.763784772860063</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2564686957820257</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.305379120715443</v>
+      </c>
+      <c r="P22">
+        <v>0.6252276271889485</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.66400846668563</v>
+        <v>3.693910071412859</v>
       </c>
       <c r="C23">
-        <v>0.7919463110595473</v>
+        <v>1.21342351730874</v>
       </c>
       <c r="D23">
-        <v>0.01348931609222603</v>
+        <v>0.1892411853142164</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.532170008932368</v>
+        <v>1.684523249740309</v>
       </c>
       <c r="G23">
-        <v>1.470837480053603</v>
+        <v>1.259883970327678</v>
       </c>
       <c r="H23">
-        <v>0.7402363781462213</v>
+        <v>0.004058400817003704</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01185890122894495</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7293937468466254</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5222403535075273</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2771579535167632</v>
       </c>
       <c r="M23">
-        <v>5.475629376666845</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2724025625352269</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.258197495356683</v>
+      </c>
+      <c r="P23">
+        <v>0.6364352517650964</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.121004302419067</v>
+        <v>3.162630387271804</v>
       </c>
       <c r="C24">
-        <v>0.6836857500547069</v>
+        <v>1.036675329200563</v>
       </c>
       <c r="D24">
-        <v>0.01267571237223208</v>
+        <v>0.1673061343242637</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.304944715504732</v>
+        <v>1.504954784517153</v>
       </c>
       <c r="G24">
-        <v>1.244367422424602</v>
+        <v>1.112387797896986</v>
       </c>
       <c r="H24">
-        <v>0.6464037142215204</v>
+        <v>0.001371163499404693</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.007023040793172619</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6675286230230739</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4873189493249157</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2455060446580291</v>
       </c>
       <c r="M24">
-        <v>4.462509977882917</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3369377396422735</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.08014662416538</v>
+      </c>
+      <c r="P24">
+        <v>0.6810345995348719</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.544345481808534</v>
+        <v>2.590918066117581</v>
       </c>
       <c r="C25">
-        <v>0.5677895276612617</v>
+        <v>0.848846376060493</v>
       </c>
       <c r="D25">
-        <v>0.01180585354293484</v>
+        <v>0.1439311609180152</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.07532009758576</v>
+        <v>1.316618204920601</v>
       </c>
       <c r="G25">
-        <v>1.016470385331061</v>
+        <v>0.9583363970865832</v>
       </c>
       <c r="H25">
-        <v>0.5533964268251879</v>
+        <v>5.103355207136673E-05</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003341446724881791</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6035669178553462</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4517905824692718</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2116759028605628</v>
       </c>
       <c r="M25">
-        <v>3.483757197302069</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4141855910072838</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0.8892931881325481</v>
+      </c>
+      <c r="P25">
+        <v>0.7319381536698728</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.183132782456198</v>
+        <v>2.063307605017656</v>
       </c>
       <c r="C2">
-        <v>0.7061028988332225</v>
+        <v>0.7615587469048819</v>
       </c>
       <c r="D2">
-        <v>0.125904700213411</v>
+        <v>0.1365741788360495</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.190131775783144</v>
+        <v>1.106531904952533</v>
       </c>
       <c r="G2">
-        <v>0.8570354842943431</v>
+        <v>0.7503094880827632</v>
       </c>
       <c r="H2">
-        <v>0.0002476811853877603</v>
+        <v>0.0002550278634563252</v>
       </c>
       <c r="I2">
-        <v>0.001126315634481401</v>
+        <v>0.001353894929145838</v>
       </c>
       <c r="J2">
-        <v>0.5628335694315041</v>
+        <v>0.5610399085440463</v>
       </c>
       <c r="K2">
-        <v>0.432480181885488</v>
+        <v>0.3760206700292805</v>
       </c>
       <c r="L2">
-        <v>0.1870074378273969</v>
+        <v>0.1951833631970317</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.09868632321066073</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1865917178225018</v>
       </c>
       <c r="O2">
-        <v>0.749540949884171</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7709349690562952</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.749207930514622</v>
+      </c>
+      <c r="R2">
+        <v>0.7705990404512697</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.899028912360308</v>
+        <v>1.802223094486976</v>
       </c>
       <c r="C3">
-        <v>0.6138185690087425</v>
+        <v>0.6584864458668847</v>
       </c>
       <c r="D3">
-        <v>0.1143331439404065</v>
+        <v>0.1237889598294757</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.10141119783259</v>
+        <v>1.030122344434076</v>
       </c>
       <c r="G3">
-        <v>0.7851294029758122</v>
+        <v>0.6920642329865103</v>
       </c>
       <c r="H3">
-        <v>0.001024763998449751</v>
+        <v>0.0009799854696199706</v>
       </c>
       <c r="I3">
-        <v>0.0005263036048921421</v>
+        <v>0.0007288434481820261</v>
       </c>
       <c r="J3">
-        <v>0.5337524159963749</v>
+        <v>0.5343095515939922</v>
       </c>
       <c r="K3">
-        <v>0.4171335246499979</v>
+        <v>0.3671046216414133</v>
       </c>
       <c r="L3">
-        <v>0.1702169711571386</v>
+        <v>0.1975553094970017</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.09048866887099294</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1706292922209656</v>
       </c>
       <c r="O3">
-        <v>0.6549984188441513</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7990917067949574</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6550160482774814</v>
+      </c>
+      <c r="R3">
+        <v>0.792780598235538</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.724134056350806</v>
+        <v>1.641049124782</v>
       </c>
       <c r="C4">
-        <v>0.5575867626218951</v>
+        <v>0.59576482227817</v>
       </c>
       <c r="D4">
-        <v>0.1072710700929562</v>
+        <v>0.116006256114261</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.04760126405148</v>
+        <v>0.9836105358196647</v>
       </c>
       <c r="G4">
-        <v>0.7415741360125878</v>
+        <v>0.6568097119455416</v>
       </c>
       <c r="H4">
-        <v>0.001793868281217748</v>
+        <v>0.001685779105766949</v>
       </c>
       <c r="I4">
-        <v>0.0004257028377332439</v>
+        <v>0.0005551445829330426</v>
       </c>
       <c r="J4">
-        <v>0.5162837368097115</v>
+        <v>0.5179217627802188</v>
       </c>
       <c r="K4">
-        <v>0.4079735684826424</v>
+        <v>0.3617464159932346</v>
       </c>
       <c r="L4">
-        <v>0.1598838030516845</v>
+        <v>0.1989559489244428</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.08611579026612404</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.160793348341457</v>
       </c>
       <c r="O4">
-        <v>0.5970135496486364</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8169813047955525</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5972087046237533</v>
+      </c>
+      <c r="R4">
+        <v>0.8070693395296793</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.651421157227503</v>
+        <v>1.573894438524292</v>
       </c>
       <c r="C5">
-        <v>0.5354059077784541</v>
+        <v>0.5709850673554229</v>
       </c>
       <c r="D5">
-        <v>0.1045038120553627</v>
+        <v>0.1129544364837685</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.024946168935969</v>
+        <v>0.9639193711539065</v>
       </c>
       <c r="G5">
-        <v>0.7230632317198626</v>
+        <v>0.6417314850258293</v>
       </c>
       <c r="H5">
-        <v>0.002178623050897555</v>
+        <v>0.00203720280486086</v>
       </c>
       <c r="I5">
-        <v>0.0005134587093165166</v>
+        <v>0.0006118106892616382</v>
       </c>
       <c r="J5">
-        <v>0.5088003341033698</v>
+        <v>0.5108099712953731</v>
       </c>
       <c r="K5">
-        <v>0.403747463450312</v>
+        <v>0.3590936895329229</v>
       </c>
       <c r="L5">
-        <v>0.155650544039311</v>
+        <v>0.1992791743729363</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.08435656496146748</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1567615400016891</v>
       </c>
       <c r="O5">
-        <v>0.5733829201742893</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8244573195681717</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5736425103054472</v>
+      </c>
+      <c r="R5">
+        <v>0.8131633605823971</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.637729545542868</v>
+        <v>1.56119993323108</v>
       </c>
       <c r="C6">
-        <v>0.5325108981961364</v>
+        <v>0.5676752087061061</v>
       </c>
       <c r="D6">
-        <v>0.1041691167298566</v>
+        <v>0.1125763470198109</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.020118181087241</v>
+        <v>0.9596438640816984</v>
       </c>
       <c r="G6">
-        <v>0.7189010111696206</v>
+        <v>0.6382253685377179</v>
       </c>
       <c r="H6">
-        <v>0.002248681751881754</v>
+        <v>0.002101071819529787</v>
       </c>
       <c r="I6">
-        <v>0.0006192163063136746</v>
+        <v>0.0007280687943511666</v>
       </c>
       <c r="J6">
-        <v>0.5070061746257153</v>
+        <v>0.5090948633707342</v>
       </c>
       <c r="K6">
-        <v>0.4023717920681094</v>
+        <v>0.3580501228676596</v>
       </c>
       <c r="L6">
-        <v>0.1549305867000967</v>
+        <v>0.1990477347937372</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.08390164526807453</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1560762462533347</v>
       </c>
       <c r="O6">
-        <v>0.5694462293103726</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8257581509133054</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5697166072308022</v>
+      </c>
+      <c r="R6">
+        <v>0.814319509331785</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.718740369054501</v>
+        <v>1.634261297976963</v>
       </c>
       <c r="C7">
-        <v>0.5594298992142797</v>
+        <v>0.596280520336677</v>
       </c>
       <c r="D7">
-        <v>0.1075736132507146</v>
+        <v>0.1165841976963904</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.04435632903558</v>
+        <v>0.9787357394858702</v>
       </c>
       <c r="G7">
-        <v>0.73832518684614</v>
+        <v>0.6575412188670242</v>
       </c>
       <c r="H7">
-        <v>0.001803693329836875</v>
+        <v>0.001698184927307445</v>
       </c>
       <c r="I7">
-        <v>0.0006491331834537206</v>
+        <v>0.0008202598149225082</v>
       </c>
       <c r="J7">
-        <v>0.5146606021511815</v>
+        <v>0.509512354602407</v>
       </c>
       <c r="K7">
-        <v>0.4060644411234762</v>
+        <v>0.3593552239771256</v>
       </c>
       <c r="L7">
-        <v>0.1597820935687366</v>
+        <v>0.1978747813643764</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.08539617554025725</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1607205124407045</v>
       </c>
       <c r="O7">
-        <v>0.596658084128542</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8172351283849171</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5964782303939415</v>
+      </c>
+      <c r="R7">
+        <v>0.8077347408451985</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.079349541928877</v>
+        <v>1.962193407095498</v>
       </c>
       <c r="C8">
-        <v>0.6770450677666986</v>
+        <v>0.724325295755051</v>
       </c>
       <c r="D8">
-        <v>0.1223574139671655</v>
+        <v>0.1335271674476672</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.155492588524041</v>
+        <v>1.070305590624443</v>
       </c>
       <c r="G8">
-        <v>0.8281239587254277</v>
+        <v>0.7388369302376958</v>
       </c>
       <c r="H8">
-        <v>0.0004558569135149071</v>
+        <v>0.000457472038160045</v>
       </c>
       <c r="I8">
-        <v>0.001121518974961155</v>
+        <v>0.001399424965658369</v>
       </c>
       <c r="J8">
-        <v>0.5507047690013422</v>
+        <v>0.5273284077692608</v>
       </c>
       <c r="K8">
-        <v>0.4246778929835386</v>
+        <v>0.3684323020177374</v>
       </c>
       <c r="L8">
-        <v>0.181162579355842</v>
+        <v>0.1940864562829638</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.09425186155433352</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1811205314384878</v>
       </c>
       <c r="O8">
-        <v>0.7168734715414615</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7807888739029529</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7154034398442803</v>
+      </c>
+      <c r="R8">
+        <v>0.7794861647128641</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.7915609956857</v>
+        <v>2.612476419394739</v>
       </c>
       <c r="C9">
-        <v>0.9078652282037751</v>
+        <v>0.9814004444654074</v>
       </c>
       <c r="D9">
-        <v>0.1511526933129232</v>
+        <v>0.1657431695333287</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.384741208734127</v>
+        <v>1.265303926780149</v>
       </c>
       <c r="G9">
-        <v>1.015072124163709</v>
+        <v>0.8944416033769045</v>
       </c>
       <c r="H9">
-        <v>0.0003048195732942016</v>
+        <v>0.0002282314166015542</v>
       </c>
       <c r="I9">
-        <v>0.004045868931649821</v>
+        <v>0.003954005773649349</v>
       </c>
       <c r="J9">
-        <v>0.627520619215332</v>
+        <v>0.5896466333322081</v>
       </c>
       <c r="K9">
-        <v>0.4668278810437769</v>
+        <v>0.3927992374496725</v>
       </c>
       <c r="L9">
-        <v>0.2231232430196926</v>
+        <v>0.1886467858793921</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1187073935940788</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2209521143616868</v>
       </c>
       <c r="O9">
-        <v>0.9535337805586792</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7139166939722443</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.9505436768905682</v>
+      </c>
+      <c r="R9">
+        <v>0.72803648384415</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.303953967794143</v>
+        <v>3.068766859671427</v>
       </c>
       <c r="C10">
-        <v>1.075906477217643</v>
+        <v>1.160066544961069</v>
       </c>
       <c r="D10">
-        <v>0.1676066047526774</v>
+        <v>0.1859565117849655</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.53356762977721</v>
+        <v>1.379069969151473</v>
       </c>
       <c r="G10">
-        <v>1.140642773601854</v>
+        <v>1.020922900805886</v>
       </c>
       <c r="H10">
-        <v>0.002017759534849617</v>
+        <v>0.001678129726420341</v>
       </c>
       <c r="I10">
-        <v>0.007916737030253529</v>
+        <v>0.00716838055508795</v>
       </c>
       <c r="J10">
-        <v>0.6784724492649445</v>
+        <v>0.5905285865758287</v>
       </c>
       <c r="K10">
-        <v>0.4924644742838993</v>
+        <v>0.4020509814631552</v>
       </c>
       <c r="L10">
-        <v>0.2417005814116777</v>
+        <v>0.1810065494202817</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1362743666179718</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2380529451034548</v>
       </c>
       <c r="O10">
-        <v>1.107524343561884</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6701567018782448</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.100918407482666</v>
+      </c>
+      <c r="R10">
+        <v>0.6991506174164357</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.460885119557418</v>
+        <v>3.20035857065858</v>
       </c>
       <c r="C11">
-        <v>1.103925882967019</v>
+        <v>1.16922836991597</v>
       </c>
       <c r="D11">
-        <v>0.1337776911036457</v>
+        <v>0.1515829052460873</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.402445015448194</v>
+        <v>1.236147910664343</v>
       </c>
       <c r="G11">
-        <v>1.068127066434982</v>
+        <v>1.00303849584509</v>
       </c>
       <c r="H11">
-        <v>0.02050106051563105</v>
+        <v>0.02011029117168661</v>
       </c>
       <c r="I11">
-        <v>0.009640898372840212</v>
+        <v>0.008670469459945096</v>
       </c>
       <c r="J11">
-        <v>0.6371892260926444</v>
+        <v>0.4806634801376646</v>
       </c>
       <c r="K11">
-        <v>0.4490751908167638</v>
+        <v>0.3575736190093579</v>
       </c>
       <c r="L11">
-        <v>0.1632602691255727</v>
+        <v>0.1606600346076341</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1246621535217436</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1592451475396217</v>
       </c>
       <c r="O11">
-        <v>1.000681199023724</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6739870577849914</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.9897002226873113</v>
+      </c>
+      <c r="R11">
+        <v>0.7254446541182062</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.491089752092137</v>
+        <v>3.22734926183341</v>
       </c>
       <c r="C12">
-        <v>1.087871000138989</v>
+        <v>1.140130591199295</v>
       </c>
       <c r="D12">
-        <v>0.1061003633154272</v>
+        <v>0.1212485699358155</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.269094363810282</v>
+        <v>1.107535671000448</v>
       </c>
       <c r="G12">
-        <v>0.9865258980392184</v>
+        <v>0.951238534226718</v>
       </c>
       <c r="H12">
-        <v>0.05888563814226444</v>
+        <v>0.0585174004235185</v>
       </c>
       <c r="I12">
-        <v>0.009845277801172614</v>
+        <v>0.008798368323827965</v>
       </c>
       <c r="J12">
-        <v>0.5944262326009095</v>
+        <v>0.4180788666704416</v>
       </c>
       <c r="K12">
-        <v>0.4110593284690154</v>
+        <v>0.324427398480065</v>
       </c>
       <c r="L12">
-        <v>0.1214806583152654</v>
+        <v>0.147693487685931</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1132087356712077</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1171336567847092</v>
       </c>
       <c r="O12">
-        <v>0.883631648929935</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6930605047014495</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.871446471252149</v>
+      </c>
+      <c r="R12">
+        <v>0.7588572673777918</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.418115513255202</v>
+        <v>3.173250916211373</v>
       </c>
       <c r="C13">
-        <v>1.04047307035421</v>
+        <v>1.086825516518843</v>
       </c>
       <c r="D13">
-        <v>0.08215712013937093</v>
+        <v>0.09302069923633383</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.122163471948994</v>
+        <v>0.9811196847155657</v>
       </c>
       <c r="G13">
-        <v>0.8886105875553483</v>
+        <v>0.8577758422192545</v>
       </c>
       <c r="H13">
-        <v>0.1141809855354268</v>
+        <v>0.1138940723996598</v>
       </c>
       <c r="I13">
-        <v>0.009154002600253008</v>
+        <v>0.008250201153829018</v>
       </c>
       <c r="J13">
-        <v>0.5456707980730897</v>
+        <v>0.391507508369159</v>
       </c>
       <c r="K13">
-        <v>0.3720506905190959</v>
+        <v>0.2963755584254315</v>
       </c>
       <c r="L13">
-        <v>0.1051073807041911</v>
+        <v>0.1384779045383837</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1009495770843287</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1006738194998751</v>
       </c>
       <c r="O13">
-        <v>0.7528496227806514</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7242753952346845</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7423196943257935</v>
+      </c>
+      <c r="R13">
+        <v>0.7961527806255901</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.319252509833859</v>
+        <v>3.097284819068534</v>
       </c>
       <c r="C14">
-        <v>0.9940599108159063</v>
+        <v>1.039188120747639</v>
       </c>
       <c r="D14">
-        <v>0.06791058275299378</v>
+        <v>0.07549504604009627</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.014049274695097</v>
+        <v>0.8931718648280054</v>
       </c>
       <c r="G14">
-        <v>0.8128199018190401</v>
+        <v>0.7753936003701938</v>
       </c>
       <c r="H14">
-        <v>0.1631838839814037</v>
+        <v>0.1629688455651319</v>
       </c>
       <c r="I14">
-        <v>0.008374747368231183</v>
+        <v>0.007672559572121429</v>
       </c>
       <c r="J14">
-        <v>0.5088394440920467</v>
+        <v>0.3860821834333166</v>
       </c>
       <c r="K14">
-        <v>0.3442389463794626</v>
+        <v>0.278500631373781</v>
       </c>
       <c r="L14">
-        <v>0.1087681462425305</v>
+        <v>0.1333510070493453</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.09198031576543286</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1045099015168649</v>
       </c>
       <c r="O14">
-        <v>0.6568294001864388</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7523578609520811</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6484542835276201</v>
+      </c>
+      <c r="R14">
+        <v>0.8239707315878633</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.271636568554584</v>
+        <v>3.059556316647161</v>
       </c>
       <c r="C15">
-        <v>0.9770783976462951</v>
+        <v>1.023066731512102</v>
       </c>
       <c r="D15">
-        <v>0.06468438564078838</v>
+        <v>0.071349719296812</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9836154047623893</v>
+        <v>0.8702714697026153</v>
       </c>
       <c r="G15">
-        <v>0.7898692248431161</v>
+        <v>0.7470439772736341</v>
       </c>
       <c r="H15">
-        <v>0.1755603991835102</v>
+        <v>0.1753739500621805</v>
       </c>
       <c r="I15">
-        <v>0.008105449011900134</v>
+        <v>0.007515799009427226</v>
       </c>
       <c r="J15">
-        <v>0.4981007327345139</v>
+        <v>0.3899455655507467</v>
       </c>
       <c r="K15">
-        <v>0.3365908912343762</v>
+        <v>0.2743651182731952</v>
       </c>
       <c r="L15">
-        <v>0.1113351159474085</v>
+        <v>0.1324982020971568</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.08938082120711854</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1072447931273715</v>
       </c>
       <c r="O15">
-        <v>0.6300407377849808</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7611735826514021</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6226089186817845</v>
+      </c>
+      <c r="R15">
+        <v>0.8309279437045021</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.064394034202451</v>
+        <v>2.888686699879145</v>
       </c>
       <c r="C16">
-        <v>0.9165663626401397</v>
+        <v>0.9713616672449632</v>
       </c>
       <c r="D16">
-        <v>0.06324188538597042</v>
+        <v>0.06848694333896432</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9506781309045493</v>
+        <v>0.8599779895158548</v>
       </c>
       <c r="G16">
-        <v>0.7554882488704919</v>
+        <v>0.6817381375752944</v>
       </c>
       <c r="H16">
-        <v>0.1622783968043109</v>
+        <v>0.1621984910597263</v>
       </c>
       <c r="I16">
-        <v>0.006592824695618837</v>
+        <v>0.006384162573604968</v>
       </c>
       <c r="J16">
-        <v>0.48572906493456</v>
+        <v>0.4380306868041686</v>
       </c>
       <c r="K16">
-        <v>0.332778468675734</v>
+        <v>0.2796036815972336</v>
       </c>
       <c r="L16">
-        <v>0.1071454130150968</v>
+        <v>0.1375481826819822</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.08664096739468619</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1040724116481861</v>
       </c>
       <c r="O16">
-        <v>0.5945449168782204</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7707631098024734</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5907686049818324</v>
+      </c>
+      <c r="R16">
+        <v>0.8253192523865209</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.957922199142558</v>
+        <v>2.795066761374358</v>
       </c>
       <c r="C17">
-        <v>0.8948714464111163</v>
+        <v>0.9551001749807142</v>
       </c>
       <c r="D17">
-        <v>0.06919574104832193</v>
+        <v>0.07486136537828258</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9818837508139922</v>
+        <v>0.8967057119271402</v>
       </c>
       <c r="G17">
-        <v>0.7689136825814415</v>
+        <v>0.6791189852299055</v>
       </c>
       <c r="H17">
-        <v>0.1242690335173506</v>
+        <v>0.1242271689176988</v>
       </c>
       <c r="I17">
-        <v>0.005894715477950285</v>
+        <v>0.005854813992321795</v>
       </c>
       <c r="J17">
-        <v>0.4956379455549467</v>
+        <v>0.4729427334892762</v>
       </c>
       <c r="K17">
-        <v>0.3444098099215758</v>
+        <v>0.2925438743782216</v>
       </c>
       <c r="L17">
-        <v>0.09944941350687131</v>
+        <v>0.1442467533271632</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0888650643348079</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.09686462537631435</v>
       </c>
       <c r="O17">
-        <v>0.617064422064999</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7632580596739515</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6147242734872833</v>
+      </c>
+      <c r="R17">
+        <v>0.8085711233806379</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.9291407004593</v>
+        <v>2.764586418333522</v>
       </c>
       <c r="C18">
-        <v>0.9020602091825936</v>
+        <v>0.9685055499435293</v>
       </c>
       <c r="D18">
-        <v>0.08449673390114754</v>
+        <v>0.09188368972348115</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.076453829942736</v>
+        <v>0.9859418792238159</v>
       </c>
       <c r="G18">
-        <v>0.8281539490221661</v>
+        <v>0.7244519748706892</v>
       </c>
       <c r="H18">
-        <v>0.07142233624558258</v>
+        <v>0.0713818197342917</v>
       </c>
       <c r="I18">
-        <v>0.005479520569615204</v>
+        <v>0.005437577780930347</v>
       </c>
       <c r="J18">
-        <v>0.5273232347944798</v>
+        <v>0.51217812763268</v>
       </c>
       <c r="K18">
-        <v>0.3726018198242684</v>
+        <v>0.3165339705532126</v>
       </c>
       <c r="L18">
-        <v>0.1015388364386851</v>
+        <v>0.1542934304961179</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09654619266922637</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.09907905204558265</v>
       </c>
       <c r="O18">
-        <v>0.6954303233232366</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7425174777905923</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6935370838140855</v>
+      </c>
+      <c r="R18">
+        <v>0.7804038443660417</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.956075711807387</v>
+        <v>2.780464167755952</v>
       </c>
       <c r="C19">
-        <v>0.9361575063855412</v>
+        <v>1.010384719697328</v>
       </c>
       <c r="D19">
-        <v>0.1103899465831759</v>
+        <v>0.1205516717355053</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.215497441633005</v>
+        <v>1.112383648585094</v>
       </c>
       <c r="G19">
-        <v>0.917351084804622</v>
+        <v>0.7994808451853288</v>
       </c>
       <c r="H19">
-        <v>0.0263868600110726</v>
+        <v>0.02631351057587494</v>
       </c>
       <c r="I19">
-        <v>0.005800471794026762</v>
+        <v>0.005744368742347739</v>
       </c>
       <c r="J19">
-        <v>0.572715363900457</v>
+        <v>0.5550845499014372</v>
       </c>
       <c r="K19">
-        <v>0.4104908787958905</v>
+        <v>0.3466522647016674</v>
       </c>
       <c r="L19">
-        <v>0.1316802257861092</v>
+        <v>0.1658956326244727</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1076519909393276</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.129077863488142</v>
       </c>
       <c r="O19">
-        <v>0.818890850261397</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.718990432558865</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8168447170320334</v>
+      </c>
+      <c r="R19">
+        <v>0.7503544457035431</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.154849094581493</v>
+        <v>2.941857780277246</v>
       </c>
       <c r="C20">
-        <v>1.038148040111651</v>
+        <v>1.124630938803136</v>
       </c>
       <c r="D20">
-        <v>0.1641100347181634</v>
+        <v>0.1804912475537606</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.483985803610722</v>
+        <v>1.346259483341981</v>
       </c>
       <c r="G20">
-        <v>1.097300138418248</v>
+        <v>0.9645328827515698</v>
       </c>
       <c r="H20">
-        <v>0.001413367825202183</v>
+        <v>0.001170114481110041</v>
       </c>
       <c r="I20">
-        <v>0.007426731596684277</v>
+        <v>0.007076636651149215</v>
       </c>
       <c r="J20">
-        <v>0.6598519126907547</v>
+        <v>0.6093174549839659</v>
       </c>
       <c r="K20">
-        <v>0.4795928595195136</v>
+        <v>0.3968840944563112</v>
       </c>
       <c r="L20">
-        <v>0.2361348942035022</v>
+        <v>0.1820142641697906</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1304202501253862</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2328085509383939</v>
       </c>
       <c r="O20">
-        <v>1.066033426558953</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6825228542703456</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.061820266360151</v>
+      </c>
+      <c r="R20">
+        <v>0.7074487616520528</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.563053472122419</v>
+        <v>3.269254115420722</v>
       </c>
       <c r="C21">
-        <v>1.176347413272936</v>
+        <v>1.246089928551328</v>
       </c>
       <c r="D21">
-        <v>0.1847769424105792</v>
+        <v>0.2104765366902086</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.637423021099778</v>
+        <v>1.433071215035611</v>
       </c>
       <c r="G21">
-        <v>1.220079318644594</v>
+        <v>1.159560146412872</v>
       </c>
       <c r="H21">
-        <v>0.003310455810926483</v>
+        <v>0.00269439950960737</v>
       </c>
       <c r="I21">
-        <v>0.0110021481382665</v>
+        <v>0.009789339869091584</v>
       </c>
       <c r="J21">
-        <v>0.7122029998787696</v>
+        <v>0.5040198970390861</v>
       </c>
       <c r="K21">
-        <v>0.5107421509897492</v>
+        <v>0.3999343086318703</v>
       </c>
       <c r="L21">
-        <v>0.2697479722520342</v>
+        <v>0.1748463818687327</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.142956794127393</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2657588823543193</v>
       </c>
       <c r="O21">
-        <v>1.216939286708083</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6471553528024536</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.202088822643404</v>
+      </c>
+      <c r="R21">
+        <v>0.6882312868216971</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.832077479303848</v>
+        <v>3.482096288127366</v>
       </c>
       <c r="C22">
-        <v>1.261664903411031</v>
+        <v>1.317391672713939</v>
       </c>
       <c r="D22">
-        <v>0.1952578915509235</v>
+        <v>0.2274855591258955</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.731180216801945</v>
+        <v>1.480449029122113</v>
       </c>
       <c r="G22">
-        <v>1.29799507870689</v>
+        <v>1.295522589503832</v>
       </c>
       <c r="H22">
-        <v>0.004983888631413858</v>
+        <v>0.004049144308303609</v>
       </c>
       <c r="I22">
-        <v>0.01345018773013518</v>
+        <v>0.01147521282162156</v>
       </c>
       <c r="J22">
-        <v>0.7453339494404645</v>
+        <v>0.4347746761307008</v>
       </c>
       <c r="K22">
-        <v>0.5308105150097333</v>
+        <v>0.4006554278760603</v>
       </c>
       <c r="L22">
-        <v>0.2855504221360263</v>
+        <v>0.1698189379868964</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1509893952604635</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2812270619265931</v>
       </c>
       <c r="O22">
-        <v>1.305379120715443</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6252276271889485</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.282738396658345</v>
+      </c>
+      <c r="R22">
+        <v>0.6782578271714215</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.693910071412859</v>
+        <v>3.378346775506884</v>
       </c>
       <c r="C23">
-        <v>1.21342351730874</v>
+        <v>1.280363817276395</v>
       </c>
       <c r="D23">
-        <v>0.1892411853142164</v>
+        <v>0.2171240698775279</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.684523249740309</v>
+        <v>1.463213588115778</v>
       </c>
       <c r="G23">
-        <v>1.259883970327678</v>
+        <v>1.214982043800205</v>
       </c>
       <c r="H23">
-        <v>0.004058400817003704</v>
+        <v>0.003308983612773986</v>
       </c>
       <c r="I23">
-        <v>0.01185890122894495</v>
+        <v>0.01025498205971687</v>
       </c>
       <c r="J23">
-        <v>0.7293937468466254</v>
+        <v>0.4866545942139595</v>
       </c>
       <c r="K23">
-        <v>0.5222403535075273</v>
+        <v>0.4038456401681785</v>
       </c>
       <c r="L23">
-        <v>0.2771579535167632</v>
+        <v>0.173706914663601</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1481628346141548</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2729135835828487</v>
       </c>
       <c r="O23">
-        <v>1.258197495356683</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6364352517650964</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.240801750526117</v>
+      </c>
+      <c r="R23">
+        <v>0.6815607359063378</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.162630387271804</v>
+        <v>2.948481357432627</v>
       </c>
       <c r="C24">
-        <v>1.036675329200563</v>
+        <v>1.123979609996468</v>
       </c>
       <c r="D24">
-        <v>0.1673061343242637</v>
+        <v>0.1839641995930918</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.504954784517153</v>
+        <v>1.365674867483847</v>
       </c>
       <c r="G24">
-        <v>1.112387797896986</v>
+        <v>0.9771209304963548</v>
       </c>
       <c r="H24">
-        <v>0.001371163499404693</v>
+        <v>0.001119617826639274</v>
       </c>
       <c r="I24">
-        <v>0.007023040793172619</v>
+        <v>0.006565848305740474</v>
       </c>
       <c r="J24">
-        <v>0.6675286230230739</v>
+        <v>0.6173488187502869</v>
       </c>
       <c r="K24">
-        <v>0.4873189493249157</v>
+        <v>0.4033540651906975</v>
       </c>
       <c r="L24">
-        <v>0.2455060446580291</v>
+        <v>0.1845084389902318</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1327953394250407</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2421536024900064</v>
       </c>
       <c r="O24">
-        <v>1.08014662416538</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6810345995348719</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.07595744582737</v>
+      </c>
+      <c r="R24">
+        <v>0.7042860452881605</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.590918066117581</v>
+        <v>2.431951411430362</v>
       </c>
       <c r="C25">
-        <v>0.848846376060493</v>
+        <v>0.9172236169129064</v>
       </c>
       <c r="D25">
-        <v>0.1439311609180152</v>
+        <v>0.1572050244675012</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.316618204920601</v>
+        <v>1.209742139788489</v>
       </c>
       <c r="G25">
-        <v>0.9583363970865832</v>
+        <v>0.8413716919804131</v>
       </c>
       <c r="H25">
-        <v>5.103355207136673E-05</v>
+        <v>2.994789610744064E-05</v>
       </c>
       <c r="I25">
-        <v>0.003341446724881791</v>
+        <v>0.003505663966601347</v>
       </c>
       <c r="J25">
-        <v>0.6035669178553462</v>
+        <v>0.5798155632242725</v>
       </c>
       <c r="K25">
-        <v>0.4517905824692718</v>
+        <v>0.3841563603588369</v>
       </c>
       <c r="L25">
-        <v>0.2116759028605628</v>
+        <v>0.1894155874835057</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1108017545469409</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2100691326023494</v>
       </c>
       <c r="O25">
-        <v>0.8892931881325481</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7319381536698728</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.8873180644119714</v>
+      </c>
+      <c r="R25">
+        <v>0.7419771917531932</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
